--- a/db/compute.xlsx
+++ b/db/compute.xlsx
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="L301" sqref="L301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -507,19 +507,22 @@
         <f>A7*10+90</f>
         <v>100</v>
       </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <f>H7/G7</f>
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
         <f>H8/24</f>
-        <v>0.24409935271377728</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -535,21 +538,25 @@
         <f t="shared" ref="C8:C71" si="0">A8*10+90</f>
         <v>110</v>
       </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D71" si="1">3600/C8</f>
+        <v>32.727272727272727</v>
+      </c>
       <c r="G8">
         <f>G7+3*A7</f>
         <v>23</v>
       </c>
       <c r="H8">
         <f>H7 + POWER(A8,$H$2)*$H$3 - A8*$H$4</f>
-        <v>5.8583844651306549</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <f>H8/G8</f>
-        <v>0.25471236804915892</v>
+        <v>3.0434782608695654</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J71" si="1">H9/24</f>
-        <v>0.49522706687140583</v>
+        <f t="shared" ref="J8:J71" si="2">H9/24</f>
+        <v>7.916666666666667</v>
       </c>
       <c r="L8">
         <v>5.0009656951016206</v>
@@ -560,32 +567,36 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f t="shared" ref="A9:A72" si="2">A8+1</f>
+        <f t="shared" ref="A9:A72" si="3">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B72" si="3">B8 + FLOOR((A9-1)/10+1,1)</f>
+        <f t="shared" ref="B9:B72" si="4">B8 + FLOOR((A9-1)/10+1,1)</f>
         <v>3</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="G9">
-        <f t="shared" ref="G9:G72" si="4">G8+3*A8</f>
+        <f t="shared" ref="G9:G72" si="5">G8+3*A8</f>
         <v>29</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H72" si="5">H8 + POWER(A9,$H$2)*$H$3 - A9*$H$4</f>
-        <v>11.88544960491374</v>
+        <f t="shared" ref="H9:H72" si="6">H8 + POWER(A9,$H$2)*$H$3 - A9*$H$4</f>
+        <v>190</v>
       </c>
       <c r="I9">
         <f>H9/G9</f>
-        <v>0.40984308982461171</v>
+        <v>6.5517241379310347</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.83983657337051631</v>
+        <f t="shared" si="2"/>
+        <v>19.583333333333332</v>
       </c>
       <c r="L9">
         <v>9.6886830260440195</v>
@@ -596,32 +607,36 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>27.692307692307693</v>
+      </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
-        <v>20.156077760892391</v>
+        <f t="shared" si="6"/>
+        <v>470</v>
       </c>
       <c r="I10">
         <f>H10/G10</f>
-        <v>0.53042309897085238</v>
+        <v>12.368421052631579</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1.2803186770285235</v>
+        <f t="shared" si="2"/>
+        <v>40.416666666666664</v>
       </c>
       <c r="L10">
         <v>16.121393814027414</v>
@@ -632,32 +647,36 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>25.714285714285715</v>
+      </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
-        <v>30.727648248684563</v>
+        <f t="shared" si="6"/>
+        <v>970</v>
       </c>
       <c r="I11">
         <f>H11/G11</f>
-        <v>0.61455296497369127</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>1.8186227165116156</v>
+        <f t="shared" si="2"/>
+        <v>72.916666666666671</v>
       </c>
       <c r="L11">
         <v>24.343726415643545</v>
@@ -668,32 +687,36 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
-        <v>43.646945196278772</v>
+        <f t="shared" si="6"/>
+        <v>1750</v>
       </c>
       <c r="I12">
         <f>H12/G12</f>
-        <v>0.67149146455813491</v>
+        <v>26.923076923076923</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>2.4564000896321256</v>
+        <f t="shared" si="2"/>
+        <v>119.58333333333333</v>
       </c>
       <c r="L12">
         <v>34.392068485994599</v>
@@ -704,32 +727,36 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
-        <v>58.953602151171019</v>
+        <f t="shared" si="6"/>
+        <v>2870</v>
       </c>
       <c r="I13">
         <f>H13/G13</f>
-        <v>0.71028436326712074</v>
+        <v>34.578313253012048</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>3.1950867376390755</v>
+        <f t="shared" si="2"/>
+        <v>182.91666666666666</v>
       </c>
       <c r="L13">
         <v>46.297246117577458</v>
@@ -740,32 +767,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>21.176470588235293</v>
+      </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
-        <v>76.682081703337815</v>
+        <f t="shared" si="6"/>
+        <v>4390</v>
       </c>
       <c r="I14">
         <f>H14/G14</f>
-        <v>0.73732770868594055</v>
+        <v>42.21153846153846</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>4.0359551218795504</v>
+        <f t="shared" si="2"/>
+        <v>265.41666666666669</v>
       </c>
       <c r="L14">
         <v>60.086063547040517</v>
@@ -776,32 +807,36 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
-        <v>96.862922925109203</v>
+        <f t="shared" si="6"/>
+        <v>6370</v>
       </c>
       <c r="I15">
         <f>H15/G15</f>
-        <v>0.75674158535241565</v>
+        <v>49.765625</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>4.9801491807251761</v>
+        <f t="shared" si="2"/>
+        <v>369.58333333333331</v>
       </c>
       <c r="L15">
         <v>75.782273386196039</v>
@@ -812,32 +847,36 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>18.94736842105263</v>
+      </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
-        <v>119.52358033740423</v>
+        <f t="shared" si="6"/>
+        <v>8870</v>
       </c>
       <c r="I16">
         <f>H16/G16</f>
-        <v>0.77111987314454344</v>
+        <v>57.225806451612904</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>6.0287090132735424</v>
+        <f t="shared" si="2"/>
+        <v>497.91666666666669</v>
       </c>
       <c r="L16">
         <v>93.407229151314397</v>
@@ -848,32 +887,36 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
-        <v>144.68901631856502</v>
+        <f t="shared" si="6"/>
+        <v>11950</v>
       </c>
       <c r="I17">
         <f>H17/G17</f>
-        <v>0.7821027909111623</v>
+        <v>64.594594594594597</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>7.1825889818616773</v>
+        <f t="shared" si="2"/>
+        <v>652.91666666666663</v>
       </c>
       <c r="L17">
         <v>112.98034602555057</v>
@@ -884,32 +927,36 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>218</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
-        <v>172.38213556468025</v>
+        <f t="shared" si="6"/>
+        <v>15670</v>
       </c>
       <c r="I18">
         <f>H18/G18</f>
-        <v>0.79074374112238643</v>
+        <v>71.88073394495413</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>8.4426713971229876</v>
+        <f t="shared" si="2"/>
+        <v>837.08333333333337</v>
       </c>
       <c r="L18">
         <v>134.51943877252907</v>
@@ -920,32 +967,36 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>16.363636363636363</v>
+      </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>254</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
-        <v>202.62411353095172</v>
+        <f t="shared" si="6"/>
+        <v>20090</v>
       </c>
       <c r="I19">
         <f>H19/G19</f>
-        <v>0.79773273043681781</v>
+        <v>79.094488188976385</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>9.8097771241563283</v>
+        <f t="shared" si="2"/>
+        <v>1052.9166666666667</v>
       </c>
       <c r="L19">
         <v>158.04097719074022</v>
@@ -956,32 +1007,36 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>15.652173913043478</v>
+      </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>293</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
-        <v>235.43465097975189</v>
+        <f t="shared" si="6"/>
+        <v>25270</v>
       </c>
       <c r="I20">
         <f>H20/G20</f>
-        <v>0.80353123201280507</v>
+        <v>86.24573378839591</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>11.284673975076048</v>
+        <f t="shared" si="2"/>
+        <v>1302.9166666666667</v>
       </c>
       <c r="L20">
         <v>183.56028409536259</v>
@@ -992,32 +1047,36 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
-        <v>270.83217540182517</v>
+        <f t="shared" si="6"/>
+        <v>31270</v>
       </c>
       <c r="I21">
         <f>H21/G21</f>
-        <v>0.80845425493082135</v>
+        <v>93.343283582089555</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>12.868083468003521</v>
+        <f t="shared" si="2"/>
+        <v>1589.5833333333333</v>
       </c>
       <c r="L21">
         <v>211.09169197919735</v>
@@ -1028,32 +1087,36 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
-        <v>308.83400323208451</v>
+        <f t="shared" si="6"/>
+        <v>38150</v>
       </c>
       <c r="I22">
         <f>H22/G22</f>
-        <v>0.81272106113706455</v>
+        <v>100.39473684210526</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>14.560686353486384</v>
+        <f t="shared" si="2"/>
+        <v>1915.4166666666667</v>
       </c>
       <c r="L22">
         <v>240.64866918051018</v>
@@ -1064,32 +1127,36 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>13.846153846153847</v>
+      </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
-        <v>349.45647248367322</v>
+        <f t="shared" si="6"/>
+        <v>45970</v>
       </c>
       <c r="I23">
         <f>H23/G23</f>
-        <v>0.81648708524222713</v>
+        <v>107.40654205607477</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>16.363127192915808</v>
+        <f t="shared" si="2"/>
+        <v>2282.9166666666665</v>
       </c>
       <c r="L23">
         <v>272.24392304285692</v>
@@ -1100,32 +1167,36 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>479</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
-        <v>392.71505262997937</v>
+        <f t="shared" si="6"/>
+        <v>54790</v>
       </c>
       <c r="I24">
         <f>H24/G24</f>
-        <v>0.81986441050100078</v>
+        <v>114.38413361169103</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>18.276018195536807</v>
+        <f t="shared" si="2"/>
+        <v>2694.5833333333335</v>
       </c>
       <c r="L24">
         <v>305.88948537887279</v>
@@ -1136,32 +1207,36 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>12.857142857142858</v>
+      </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>533</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
-        <v>438.62443669288336</v>
+        <f t="shared" si="6"/>
+        <v>64670</v>
       </c>
       <c r="I25">
         <f>H25/G25</f>
-        <v>0.82293515326995004</v>
+        <v>121.33208255159475</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>20.299942467047153</v>
+        <f t="shared" si="2"/>
+        <v>3152.9166666666665</v>
       </c>
       <c r="L25">
         <v>341.59678409446479</v>
@@ -1172,32 +1247,36 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>12.413793103448276</v>
+      </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>590</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
-        <v>487.19861920913166</v>
+        <f t="shared" si="6"/>
+        <v>75670</v>
       </c>
       <c r="I26">
         <f>H26/G26</f>
-        <v>0.82576037154090109</v>
+        <v>128.25423728813558</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>22.435456785089965</v>
+        <f t="shared" si="2"/>
+        <v>3660.4166666666665</v>
       </c>
       <c r="L26">
         <v>379.37670382932458</v>
@@ -1208,2407 +1287,4782 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
-        <v>538.45096284215913</v>
+        <f t="shared" si="6"/>
+        <v>87850</v>
       </c>
       <c r="I27">
         <f>H27/G27</f>
-        <v>0.82838609668024477</v>
+        <v>135.15384615384616</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>24.683093989903639</v>
+        <f t="shared" si="2"/>
+        <v>4219.583333333333</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>11.612903225806452</v>
+      </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>713</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
-        <v>592.39425575768735</v>
+        <f t="shared" si="6"/>
+        <v>101270</v>
       </c>
       <c r="I28">
         <f>H28/G28</f>
-        <v>0.83084748353111826</v>
+        <v>142.0336605890603</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>27.043365058641253</v>
+        <f t="shared" si="2"/>
+        <v>4832.916666666667</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>779</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
-        <v>649.04076140739005</v>
+        <f t="shared" si="6"/>
+        <v>115990</v>
       </c>
       <c r="I29">
         <f>H29/G29</f>
-        <v>0.83317170912373562</v>
+        <v>148.89602053915277</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>29.516760917211201</v>
+        <f t="shared" si="2"/>
+        <v>5502.916666666667</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>10.909090909090908</v>
+      </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>848</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
-        <v>708.40226201306882</v>
+        <f t="shared" si="6"/>
+        <v>132070</v>
       </c>
       <c r="I30">
         <f>H30/G30</f>
-        <v>0.83538002595880756</v>
+        <v>155.7429245283019</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>32.103754032450979</v>
+        <f t="shared" si="2"/>
+        <v>6232.083333333333</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>920</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
-        <v>770.4900967788235</v>
+        <f t="shared" si="6"/>
+        <v>149570</v>
       </c>
       <c r="I31">
         <f>H31/G31</f>
-        <v>0.837489235629156</v>
+        <v>162.57608695652175</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>34.804799819022399</v>
+        <f t="shared" si="2"/>
+        <v>7022.916666666667</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>10.285714285714286</v>
+      </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>995</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
-        <v>835.31519565653764</v>
+        <f t="shared" si="6"/>
+        <v>168550</v>
       </c>
       <c r="I32">
         <f>H32/G32</f>
-        <v>0.83951275945380666</v>
+        <v>169.39698492462313</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>37.620337888912118</v>
+        <f t="shared" si="2"/>
+        <v>7877.916666666667</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1073</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
-        <v>902.88810933389084</v>
+        <f t="shared" si="6"/>
+        <v>189070</v>
       </c>
       <c r="I33">
         <f>H33/G33</f>
-        <v>0.84146142528787593</v>
+        <v>176.20689655172413</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>40.55079316634356</v>
+        <f t="shared" si="2"/>
+        <v>8799.5833333333339</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>9.7297297297297298</v>
+      </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1154</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
-        <v>973.21903599224538</v>
+        <f t="shared" si="6"/>
+        <v>211190</v>
       </c>
       <c r="I34">
         <f>H34/G34</f>
-        <v>0.84334405198634776</v>
+        <v>183.00693240901214</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>43.596576886902341</v>
+        <f t="shared" si="2"/>
+        <v>9790.4166666666661</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>9.473684210526315</v>
+      </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1238</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
-        <v>1046.3178452856562</v>
+        <f t="shared" si="6"/>
+        <v>234970</v>
       </c>
       <c r="I35">
         <f>H35/G35</f>
-        <v>0.84516788795287257</v>
+        <v>189.79806138933765</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>46.758087496490539</v>
+        <f t="shared" si="2"/>
+        <v>10852.916666666666</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>9.2307692307692299</v>
+      </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1325</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
-        <v>1122.194099915773</v>
+        <f t="shared" si="6"/>
+        <v>260470</v>
       </c>
       <c r="I36">
         <f>H36/G36</f>
-        <v>0.84693894333265884</v>
+        <v>196.58113207547169</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>50.035711463167168</v>
+        <f t="shared" si="2"/>
+        <v>11989.583333333334</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1415</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
-        <v>1200.8570751160121</v>
+        <f t="shared" si="6"/>
+        <v>287750</v>
       </c>
       <c r="I37">
         <f>H37/G37</f>
-        <v>0.84866224389824174</v>
+        <v>203.35689045936397</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>53.429824012862603</v>
+        <f t="shared" si="2"/>
+        <v>13202.916666666666</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>8.7804878048780495</v>
+      </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1508</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
-        <v>1282.3157763087024</v>
+        <f t="shared" si="6"/>
+        <v>316870</v>
       </c>
       <c r="I38">
         <f>H38/G38</f>
-        <v>0.85034202672990877</v>
+        <v>210.12599469496021</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>56.940789798267623</v>
+        <f t="shared" si="2"/>
+        <v>14495.416666666666</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285712</v>
+      </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1604</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
-        <v>1366.578955158423</v>
+        <f t="shared" si="6"/>
+        <v>347890</v>
       </c>
       <c r="I39">
         <f>H39/G39</f>
-        <v>0.85198189224340581</v>
+        <v>216.88902743142145</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>60.568963508813404</v>
+        <f t="shared" si="2"/>
+        <v>15869.583333333334</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>8.3720930232558146</v>
+      </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1703</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
-        <v>1453.6551242115218</v>
+        <f t="shared" si="6"/>
+        <v>380870</v>
       </c>
       <c r="I40">
         <f>H40/G40</f>
-        <v>0.85358492320112844</v>
+        <v>223.64650616559013</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>64.314690428514737</v>
+        <f t="shared" si="2"/>
+        <v>17327.916666666668</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>8.1818181818181817</v>
+      </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1805</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
-        <v>1543.5525702843538</v>
+        <f t="shared" si="6"/>
+        <v>415870</v>
       </c>
       <c r="I41">
         <f>H41/G41</f>
-        <v>0.85515377855088859</v>
+        <v>230.39889196675901</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>68.178306947498939</v>
+        <f t="shared" si="2"/>
+        <v>18872.916666666668</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1910</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
-        <v>1636.2793667399744</v>
+        <f t="shared" si="6"/>
+        <v>452950</v>
       </c>
       <c r="I42">
         <f>H42/G42</f>
-        <v>0.85669076792668819</v>
+        <v>237.14659685863873</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>72.160141032248063</v>
+        <f t="shared" si="2"/>
+        <v>20507.083333333332</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>7.8260869565217392</v>
+      </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
-        <v>1731.8433847739534</v>
+        <f t="shared" si="6"/>
+        <v>492170</v>
       </c>
       <c r="I43">
         <f>H43/G43</f>
-        <v>0.85819791118629996</v>
+        <v>243.88999008919723</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>76.260512658915317</v>
+        <f t="shared" si="2"/>
+        <v>22232.916666666668</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>7.6595744680851068</v>
+      </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2129</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
-        <v>1830.2523038139677</v>
+        <f t="shared" si="6"/>
+        <v>533590</v>
       </c>
       <c r="I44">
         <f>H44/G44</f>
-        <v>0.85967698629120137</v>
+        <v>250.62940347581025</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>80.479734213512614</v>
+        <f t="shared" si="2"/>
+        <v>24052.916666666668</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2243</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
-        <v>1931.5136211243027</v>
+        <f t="shared" si="6"/>
+        <v>577270</v>
       </c>
       <c r="I45">
         <f>H45/G45</f>
-        <v>0.86112956804471807</v>
+        <v>257.36513597860011</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>84.818110862288393</v>
+        <f t="shared" si="2"/>
+        <v>25969.583333333332</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>7.3469387755102042</v>
+      </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2360</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
-        <v>2035.6346606949214</v>
+        <f t="shared" si="6"/>
+        <v>623270</v>
       </c>
       <c r="I46">
         <f>H46/G46</f>
-        <v>0.86255705961649209</v>
+        <v>264.09745762711867</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>89.275940895207597</v>
+        <f t="shared" si="2"/>
+        <v>27985.416666666668</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2480</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
-        <v>2142.6225814849822</v>
+        <f t="shared" si="6"/>
+        <v>671650</v>
       </c>
       <c r="I47">
         <f>H47/G47</f>
-        <v>0.86396071834071864</v>
+        <v>270.82661290322579</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>93.85351604509674</v>
+        <f t="shared" si="2"/>
+        <v>30102.916666666668</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>7.0588235294117645</v>
+      </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2603</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
-        <v>2252.4843850823218</v>
+        <f t="shared" si="6"/>
+        <v>722470</v>
       </c>
       <c r="I48">
         <f>H48/G48</f>
-        <v>0.865341676942882</v>
+        <v>277.55282366500194</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>98.55112178471758</v>
+        <f t="shared" si="2"/>
+        <v>32324.583333333332</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>6.9230769230769234</v>
+      </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2729</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
-        <v>2365.226922833222</v>
+        <f t="shared" si="6"/>
+        <v>775790</v>
       </c>
       <c r="I49">
         <f>H49/G49</f>
-        <v>0.86670096109682004</v>
+        <v>284.27629168193477</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>103.36903760377469</v>
+        <f t="shared" si="2"/>
+        <v>34652.916666666664</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>6.7924528301886795</v>
+      </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2858</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
-        <v>2480.8569024905923</v>
+        <f t="shared" si="6"/>
+        <v>831670</v>
       </c>
       <c r="I50">
         <f>H50/G50</f>
-        <v>0.86803950402050112</v>
+        <v>290.99720083974807</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>108.30753726763807</v>
+        <f t="shared" si="2"/>
+        <v>37090.416666666664</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2990</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
-        <v>2599.3808944233137</v>
+        <f t="shared" si="6"/>
+        <v>890170</v>
       </c>
       <c r="I51">
         <f>H51/G51</f>
-        <v>0.86935815867000454</v>
+        <v>297.71571906354512</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>113.36688905936838</v>
+        <f t="shared" si="2"/>
+        <v>39639.583333333336</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>6.5454545454545459</v>
+      </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3125</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
-        <v>2720.8053374248411</v>
+        <f t="shared" si="6"/>
+        <v>951350</v>
       </c>
       <c r="I52">
         <f>H52/G52</f>
-        <v>0.87065770797594921</v>
+        <v>304.43200000000002</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>118.54735600646212</v>
+        <f t="shared" si="2"/>
+        <v>42302.916666666664</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>6.4285714285714288</v>
+      </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3263</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
-        <v>2845.1365441550911</v>
+        <f t="shared" si="6"/>
+        <v>1015270</v>
       </c>
       <c r="I53">
         <f>H53/G53</f>
-        <v>0.8719388734768897</v>
+        <v>311.14618449279806</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>123.84919609358701</v>
+        <f t="shared" si="2"/>
+        <v>45082.916666666664</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>6.3157894736842106</v>
+      </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3404</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
-        <v>2972.3807062460883</v>
+        <f t="shared" si="6"/>
+        <v>1081990</v>
       </c>
       <c r="I54">
         <f>H54/G54</f>
-        <v>0.87320232263398601</v>
+        <v>317.858401880141</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>129.27266246244699</v>
+        <f t="shared" si="2"/>
+        <v>47982.083333333336</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>6.2068965517241379</v>
+      </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3548</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
-        <v>3102.5438990987277</v>
+        <f t="shared" si="6"/>
+        <v>1151570</v>
       </c>
       <c r="I55">
         <f>H55/G55</f>
-        <v>0.8744486750560112</v>
+        <v>324.56877113866966</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>134.81800359980318</v>
+        <f t="shared" si="2"/>
+        <v>51002.916666666664</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>6.101694915254237</v>
+      </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3695</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
-        <v>3235.632086395276</v>
+        <f t="shared" si="6"/>
+        <v>1224070</v>
       </c>
       <c r="I56">
         <f>H56/G56</f>
-        <v>0.87567850782010181</v>
+        <v>331.27740189445194</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>140.4854635145754</v>
+        <f t="shared" si="2"/>
+        <v>54147.916666666664</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3845</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
-        <v>3371.6511243498098</v>
+        <f t="shared" si="6"/>
+        <v>1299550</v>
       </c>
       <c r="I57">
         <f>H57/G57</f>
-        <v>0.8768923600389622</v>
+        <v>337.9843953185956</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>146.27528190486086</v>
+        <f t="shared" si="2"/>
+        <v>57419.583333333336</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>5.9016393442622954</v>
+      </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3998</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
-        <v>3510.6067657166604</v>
+        <f t="shared" si="6"/>
+        <v>1378070</v>
       </c>
       <c r="I58">
         <f>H58/G58</f>
-        <v>0.87809073679756389</v>
+        <v>344.68984492246125</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
-        <v>152.18769431562657</v>
+        <f t="shared" si="2"/>
+        <v>60820.416666666664</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>5.806451612903226</v>
+      </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4154</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
-        <v>3652.5046635750377</v>
+        <f t="shared" si="6"/>
+        <v>1459690</v>
       </c>
       <c r="I59">
         <f>H59/G59</f>
-        <v>0.87927411256019206</v>
+        <v>351.39383726528649</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
-        <v>158.22293228776348</v>
+        <f t="shared" si="2"/>
+        <v>64352.916666666664</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857144</v>
+      </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4313</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
-        <v>3797.3503749063234</v>
+        <f t="shared" si="6"/>
+        <v>1544470</v>
       </c>
       <c r="I60">
         <f>H60/G60</f>
-        <v>0.8804429341308424</v>
+        <v>358.09645258520749</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>164.38122349912604</v>
+        <f t="shared" si="2"/>
+        <v>68019.583333333328</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>5.625</v>
+      </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4475</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
-        <v>3945.1493639790251</v>
+        <f t="shared" si="6"/>
+        <v>1632470</v>
       </c>
       <c r="I61">
         <f>H61/G61</f>
-        <v>0.88159762323553637</v>
+        <v>364.79776536312852</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>170.66279189812695</v>
+        <f t="shared" si="2"/>
+        <v>71822.916666666672</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>5.5384615384615383</v>
+      </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4640</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
-        <v>4095.9070055550469</v>
+        <f t="shared" si="6"/>
+        <v>1723750</v>
       </c>
       <c r="I62">
         <f>H62/G62</f>
-        <v>0.88273857878341533</v>
+        <v>371.49784482758622</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>177.0678578304057</v>
+        <f t="shared" si="2"/>
+        <v>75765.416666666672</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>192</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454541</v>
+      </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4808</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
-        <v>4249.6285879297366</v>
+        <f t="shared" si="6"/>
+        <v>1818370</v>
       </c>
       <c r="I63">
         <f>H63/G63</f>
-        <v>0.88386617885393859</v>
+        <v>378.19675540765388</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>183.59663815904563</v>
+        <f t="shared" si="2"/>
+        <v>79849.583333333328</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>5.3731343283582094</v>
+      </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4979</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
-        <v>4406.3193158170952</v>
+        <f t="shared" si="6"/>
+        <v>1916390</v>
       </c>
       <c r="I64">
         <f>H64/G64</f>
-        <v>0.88498078244970779</v>
+        <v>384.89455713998797</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>190.24934637877365</v>
+        <f t="shared" si="2"/>
+        <v>84077.916666666672</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>5.2941176470588234</v>
+      </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5153</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
-        <v>4565.9843130905674</v>
+        <f t="shared" si="6"/>
+        <v>2017870</v>
       </c>
       <c r="I65">
         <f>H65/G65</f>
-        <v>0.88608273104804336</v>
+        <v>391.59130603531923</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>197.02619272454081</v>
+        <f t="shared" si="2"/>
+        <v>88452.916666666672</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>5.2173913043478262</v>
+      </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5330</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
-        <v>4728.6286253889793</v>
+        <f t="shared" si="6"/>
+        <v>2122870</v>
       </c>
       <c r="I66">
         <f>H66/G66</f>
-        <v>0.8871723499791706</v>
+        <v>398.28705440900563</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>203.92738427484952</v>
+        <f t="shared" si="2"/>
+        <v>92977.083333333328</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>217</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>5.1428571428571432</v>
+      </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5510</v>
       </c>
       <c r="H67">
-        <f t="shared" si="5"/>
-        <v>4894.2572225963886</v>
+        <f t="shared" si="6"/>
+        <v>2231450</v>
       </c>
       <c r="I67">
         <f>H67/G67</f>
-        <v>0.88824994965451698</v>
+        <v>404.9818511796733</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
-        <v>210.95312505016344</v>
+        <f t="shared" si="2"/>
+        <v>97652.916666666672</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>5.070422535211268</v>
+      </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5693</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
-        <v>5062.8750012039227</v>
+        <f t="shared" si="6"/>
+        <v>2343670</v>
       </c>
       <c r="I68">
         <f>H68/G68</f>
-        <v>0.88931582666501363</v>
+        <v>411.67574213946955</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
-        <v>218.10361610670984</v>
+        <f t="shared" si="2"/>
+        <v>102482.91666666667</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5879</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
-        <v>5234.4867865610358</v>
+        <f t="shared" si="6"/>
+        <v>2459590</v>
       </c>
       <c r="I69">
         <f>H69/G69</f>
-        <v>0.89037026476629288</v>
+        <v>418.36877019901345</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>225.37905562595972</v>
+        <f t="shared" si="2"/>
+        <v>107469.58333333333</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>4.9315068493150687</v>
+      </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6068</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
-        <v>5409.0973350230333</v>
+        <f t="shared" si="6"/>
+        <v>2579270</v>
       </c>
       <c r="I70">
         <f>H70/G70</f>
-        <v>0.89141353576516702</v>
+        <v>425.0609756097561</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
-        <v>232.77963900004991</v>
+        <f t="shared" si="2"/>
+        <v>112615.41666666667</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
         <v>740</v>
       </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>4.8648648648648649</v>
+      </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6260</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
-        <v>5586.7113360011981</v>
+        <f t="shared" si="6"/>
+        <v>2702770</v>
       </c>
       <c r="I71">
         <f>H71/G71</f>
-        <v>0.89244590031968019</v>
+        <v>431.75239616613419</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
-        <v>240.30555891338994</v>
+        <f t="shared" si="2"/>
+        <v>117922.91666666667</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C106" si="6">A72*10+90</f>
+        <f t="shared" ref="C72:C106" si="7">A72*10+90</f>
         <v>750</v>
       </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D106" si="8">3600/C72</f>
+        <v>4.8</v>
+      </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6455</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
-        <v>5767.3334139213584</v>
+        <f t="shared" si="6"/>
+        <v>2830150</v>
       </c>
       <c r="I72">
         <f>H72/G72</f>
-        <v>0.89346760866326236</v>
+        <v>438.44306738962047</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J106" si="7">H73/24</f>
-        <v>247.95700542068008</v>
+        <f t="shared" ref="J72:J106" si="9">H73/24</f>
+        <v>123394.58333333333</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
-        <f t="shared" ref="A73:A106" si="8">A72+1</f>
+        <f t="shared" ref="A73:A136" si="10">A72+1</f>
         <v>67</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B106" si="9">B72 + FLOOR((A73-1)/10+1,1)</f>
+        <f t="shared" ref="B73:B136" si="11">B72 + FLOOR((A73-1)/10+1,1)</f>
         <v>259</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>760</v>
       </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>4.7368421052631575</v>
+      </c>
       <c r="G73">
-        <f t="shared" ref="G73:G106" si="10">G72+3*A72</f>
+        <f t="shared" ref="G73:G106" si="12">G72+3*A72</f>
         <v>6653</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H107" si="11">H72 + POWER(A73,$H$2)*$H$3 - A73*$H$4</f>
-        <v>5950.9681300963221</v>
+        <f t="shared" ref="H73:H107" si="13">H72 + POWER(A73,$H$2)*$H$3 - A73*$H$4</f>
+        <v>2961470</v>
       </c>
       <c r="I73">
         <f>H73/G73</f>
-        <v>0.89447890126203544</v>
+        <v>445.13302269652786</v>
       </c>
       <c r="J73">
-        <f t="shared" si="7"/>
-        <v>255.73416602154967</v>
+        <f t="shared" si="9"/>
+        <v>129032.91666666667</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="11"/>
+        <v>266</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>770</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="9"/>
-        <v>266</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="6"/>
-        <v>770</v>
+        <v>4.6753246753246751</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6854</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
-        <v>6137.6199845171923</v>
+        <f t="shared" si="13"/>
+        <v>3096790</v>
       </c>
       <c r="I74">
         <f>H74/G74</f>
-        <v>0.89548000941307149</v>
+        <v>451.82229355121098</v>
       </c>
       <c r="J74">
-        <f t="shared" si="7"/>
-        <v>263.63722573200914</v>
+        <f t="shared" si="9"/>
+        <v>134840.41666666666</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="9"/>
-        <v>273</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="6"/>
-        <v>780</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7058</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
-        <v>6327.2934175682194</v>
+        <f t="shared" si="13"/>
+        <v>3236170</v>
       </c>
       <c r="I75">
         <f>H75/G75</f>
-        <v>0.89647115579033998</v>
+        <v>458.51090960612072</v>
       </c>
       <c r="J75">
-        <f t="shared" si="7"/>
-        <v>271.66636715289656</v>
+        <f t="shared" si="9"/>
+        <v>140819.58333333334</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>790</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="9"/>
-        <v>280</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="6"/>
-        <v>790</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="G76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7265</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
-        <v>6519.9928116695173</v>
+        <f t="shared" si="13"/>
+        <v>3379670</v>
       </c>
       <c r="I76">
         <f>H76/G76</f>
-        <v>0.89745255494418685</v>
+        <v>465.1988988300069</v>
       </c>
       <c r="J76">
-        <f t="shared" si="7"/>
-        <v>279.82177053548605</v>
+        <f t="shared" si="9"/>
+        <v>146972.91666666666</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="11"/>
+        <v>288</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="9"/>
-        <v>288</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="6"/>
-        <v>800</v>
+        <v>4.5</v>
       </c>
       <c r="G77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7475</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
-        <v>6715.7224928516653</v>
+        <f t="shared" si="13"/>
+        <v>3527350</v>
       </c>
       <c r="I77">
         <f>H77/G77</f>
-        <v>0.89842441375942006</v>
+        <v>471.88628762541805</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
-        <v>288.10361384441427</v>
+        <f t="shared" si="9"/>
+        <v>153302.91666666666</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="11"/>
+        <v>296</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>810</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="9"/>
-        <v>296</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="6"/>
-        <v>810</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7688</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
-        <v>6914.486732265942</v>
+        <f t="shared" si="13"/>
+        <v>3679270</v>
       </c>
       <c r="I78">
         <f>H78/G78</f>
-        <v>0.89938693187642327</v>
+        <v>478.57310093652444</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
-        <v>296.51207281807007</v>
+        <f t="shared" si="9"/>
+        <v>159812.08333333334</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>820</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="9"/>
-        <v>304</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="6"/>
-        <v>820</v>
+        <v>4.3902439024390247</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7904</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
-        <v>7116.2897476336811</v>
+        <f t="shared" si="13"/>
+        <v>3835490</v>
       </c>
       <c r="I79">
         <f>H79/G79</f>
-        <v>0.90034030207916005</v>
+        <v>485.25936234817812</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
-        <v>305.04732102658323</v>
+        <f t="shared" si="9"/>
+        <v>166502.91666666666</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="11"/>
+        <v>312</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>830</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="9"/>
-        <v>312</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="6"/>
-        <v>830</v>
+        <v>4.3373493975903612</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8123</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
-        <v>7321.1357046379981</v>
+        <f t="shared" si="13"/>
+        <v>3996070</v>
       </c>
       <c r="I80">
         <f>H80/G80</f>
-        <v>0.90128471065345295</v>
+        <v>491.94509417702818</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
-        <v>313.70952992753911</v>
+        <f t="shared" si="9"/>
+        <v>173377.91666666666</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>840</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="9"/>
-        <v>320</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="6"/>
-        <v>840</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8345</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
-        <v>7529.0287182609381</v>
+        <f t="shared" si="13"/>
+        <v>4161070</v>
       </c>
       <c r="I81">
         <f>H81/G81</f>
-        <v>0.90222033771850663</v>
+        <v>498.63031755542244</v>
       </c>
       <c r="J81">
-        <f t="shared" si="7"/>
-        <v>322.49886891953656</v>
+        <f t="shared" si="9"/>
+        <v>180439.58333333334</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="11"/>
+        <v>328</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>850</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="9"/>
-        <v>328</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="6"/>
-        <v>850</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8570</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
-        <v>7739.9728540688775</v>
+        <f t="shared" si="13"/>
+        <v>4330550</v>
       </c>
       <c r="I82">
         <f>H82/G82</f>
-        <v>0.90314735753429143</v>
+        <v>505.31505250875148</v>
       </c>
       <c r="J82">
-        <f t="shared" si="7"/>
-        <v>331.41550539370161</v>
+        <f t="shared" si="9"/>
+        <v>187690.41666666666</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>860</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="9"/>
-        <v>336</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="6"/>
-        <v>860</v>
+        <v>4.1860465116279073</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8798</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
-        <v>7953.972129448839</v>
+        <f t="shared" si="13"/>
+        <v>4504570</v>
       </c>
       <c r="I83">
         <f>H83/G83</f>
-        <v>0.9040659387870924</v>
+        <v>511.99931802682426</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
-        <v>340.45960478325861</v>
+        <f t="shared" si="9"/>
+        <v>195132.91666666666</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="11"/>
+        <v>344</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>870</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="9"/>
-        <v>344</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="6"/>
-        <v>870</v>
+        <v>4.1379310344827589</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9029</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
-        <v>8171.0305147982072</v>
+        <f t="shared" si="13"/>
+        <v>4683190</v>
       </c>
       <c r="I84">
         <f>H84/G84</f>
-        <v>0.90497624485526718</v>
+        <v>518.68313212980399</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
-        <v>349.63133061125751</v>
+        <f t="shared" si="9"/>
+        <v>202769.58333333334</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="11"/>
+        <v>352</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>880</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="9"/>
-        <v>352</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="6"/>
-        <v>880</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9263</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
-        <v>8391.1519346701807</v>
+        <f t="shared" si="13"/>
+        <v>4866470</v>
       </c>
       <c r="I85">
         <f>H85/G85</f>
-        <v>0.90587843405702051</v>
+        <v>525.36651192918066</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
-        <v>358.93084453654757</v>
+        <f t="shared" si="9"/>
+        <v>210602.91666666666</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>890</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="9"/>
-        <v>360</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="6"/>
-        <v>890</v>
+        <v>4.0449438202247192</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9500</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
-        <v>8614.3402688771421</v>
+        <f t="shared" si="13"/>
+        <v>5054470</v>
       </c>
       <c r="I86">
         <f>H86/G86</f>
-        <v>0.90677265988180444</v>
+        <v>532.04947368421051</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
-        <v>368.35830639808341</v>
+        <f t="shared" si="9"/>
+        <v>218635.41666666666</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="11"/>
+        <v>369</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="9"/>
-        <v>369</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="6"/>
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9740</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
-        <v>8840.5993535540019</v>
+        <f t="shared" si="13"/>
+        <v>5247250</v>
       </c>
       <c r="I87">
         <f>H87/G87</f>
-        <v>0.90765907120677636</v>
+        <v>538.73203285420948</v>
       </c>
       <c r="J87">
-        <f t="shared" si="7"/>
-        <v>377.91387425764361</v>
+        <f t="shared" si="9"/>
+        <v>226869.58333333334</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="11"/>
+        <v>378</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>910</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="9"/>
-        <v>378</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="6"/>
-        <v>910</v>
+        <v>3.9560439560439562</v>
       </c>
       <c r="G88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9983</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
-        <v>9069.9329821834472</v>
+        <f t="shared" si="13"/>
+        <v>5444870</v>
       </c>
       <c r="I88">
         <f>H88/G88</f>
-        <v>0.90853781249959398</v>
+        <v>545.41420414704999</v>
       </c>
       <c r="J88">
-        <f t="shared" si="7"/>
-        <v>387.59770444103748</v>
+        <f t="shared" si="9"/>
+        <v>235307.91666666666</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="11"/>
+        <v>387</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>920</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="9"/>
-        <v>387</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="6"/>
-        <v>920</v>
+        <v>3.9130434782608696</v>
       </c>
       <c r="G89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10229</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
-        <v>9302.3449065848999</v>
+        <f t="shared" si="13"/>
+        <v>5647390</v>
       </c>
       <c r="I89">
         <f>H89/G89</f>
-        <v>0.90940902400869095</v>
+        <v>552.09600156418026</v>
       </c>
       <c r="J89">
-        <f t="shared" si="7"/>
-        <v>397.40995157787103</v>
+        <f t="shared" si="9"/>
+        <v>243952.91666666666</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="11"/>
+        <v>396</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="9"/>
-        <v>396</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="6"/>
-        <v>930</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="G90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10478</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
-        <v>9537.8388378689051</v>
+        <f t="shared" si="13"/>
+        <v>5854870</v>
       </c>
       <c r="I90">
         <f>H90/G90</f>
-        <v>0.91027284194206004</v>
+        <v>558.77743844245083</v>
       </c>
       <c r="J90">
-        <f t="shared" si="7"/>
-        <v>407.35076863993913</v>
+        <f t="shared" si="9"/>
+        <v>252807.08333333334</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="11"/>
+        <v>405</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>940</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="9"/>
-        <v>405</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="6"/>
-        <v>940</v>
+        <v>3.8297872340425534</v>
       </c>
       <c r="G91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10730</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
-        <v>9776.4184473585392</v>
+        <f t="shared" si="13"/>
+        <v>6067370</v>
       </c>
       <c r="I91">
         <f>H91/G91</f>
-        <v>0.91112939863546494</v>
+        <v>565.45852749301025</v>
       </c>
       <c r="J91">
-        <f t="shared" si="7"/>
-        <v>417.42030697830677</v>
+        <f t="shared" si="9"/>
+        <v>261872.91666666666</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="11"/>
+        <v>414</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>950</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="9"/>
-        <v>414</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="6"/>
-        <v>950</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="G92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10985</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
-        <v>10018.087367479362</v>
+        <f t="shared" si="13"/>
+        <v>6284950</v>
       </c>
       <c r="I92">
         <f>H92/G92</f>
-        <v>0.91197882271091146</v>
+        <v>572.13928083750568</v>
       </c>
       <c r="J92">
-        <f t="shared" si="7"/>
-        <v>427.61871635913934</v>
+        <f t="shared" si="9"/>
+        <v>271152.91666666669</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="11"/>
+        <v>423</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>960</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="9"/>
-        <v>423</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="6"/>
-        <v>960</v>
+        <v>3.75</v>
       </c>
       <c r="G93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11243</v>
       </c>
       <c r="H93">
-        <f t="shared" si="11"/>
-        <v>10262.849192619344</v>
+        <f t="shared" si="13"/>
+        <v>6507670</v>
       </c>
       <c r="I93">
         <f>H93/G93</f>
-        <v>0.91282123922612679</v>
+        <v>578.81971004180377</v>
       </c>
       <c r="J93">
-        <f t="shared" si="7"/>
-        <v>437.94614499833773</v>
+        <f t="shared" si="9"/>
+        <v>280649.58333333331</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>970</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="9"/>
-        <v>432</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="6"/>
-        <v>970</v>
+        <v>3.7113402061855671</v>
       </c>
       <c r="G94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11504</v>
       </c>
       <c r="H94">
-        <f t="shared" si="11"/>
-        <v>10510.707479960105</v>
+        <f t="shared" si="13"/>
+        <v>6735590</v>
       </c>
       <c r="I94">
         <f>H94/G94</f>
-        <v>0.91365676981572541</v>
+        <v>585.49982614742703</v>
       </c>
       <c r="J94">
-        <f t="shared" si="7"/>
-        <v>448.40273959503105</v>
+        <f t="shared" si="9"/>
+        <v>290365.41666666669</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="11"/>
+        <v>441</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>980</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="9"/>
-        <v>441</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="6"/>
-        <v>980</v>
+        <v>3.6734693877551021</v>
       </c>
       <c r="G95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11768</v>
       </c>
       <c r="H95">
-        <f t="shared" si="11"/>
-        <v>10761.665750280745</v>
+        <f t="shared" si="13"/>
+        <v>6968770</v>
       </c>
       <c r="I95">
         <f>H95/G95</f>
-        <v>0.91448553282467238</v>
+        <v>592.17963970088374</v>
       </c>
       <c r="J95">
-        <f t="shared" si="7"/>
-        <v>458.98864536397741</v>
+        <f t="shared" si="9"/>
+        <v>300302.91666666669</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>990</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="9"/>
-        <v>450</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="6"/>
-        <v>990</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="G96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12035</v>
       </c>
       <c r="H96">
-        <f t="shared" si="11"/>
-        <v>11015.727488735458</v>
+        <f t="shared" si="13"/>
+        <v>7207270</v>
       </c>
       <c r="I96">
         <f>H96/G96</f>
-        <v>0.91530764343460391</v>
+        <v>598.85916078105527</v>
       </c>
       <c r="J96">
-        <f t="shared" si="7"/>
-        <v>469.70400606692016</v>
+        <f t="shared" si="9"/>
+        <v>310464.58333333331</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="11"/>
+        <v>460</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="G97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12305</v>
       </c>
       <c r="H97">
-        <f t="shared" si="11"/>
-        <v>11272.896145606084</v>
+        <f t="shared" si="13"/>
+        <v>7451150</v>
       </c>
       <c r="I97">
         <f>H97/G97</f>
-        <v>0.91612321378350947</v>
+        <v>605.53839902478671</v>
       </c>
       <c r="J97">
-        <f t="shared" si="7"/>
-        <v>480.54896404294414</v>
+        <f t="shared" si="9"/>
+        <v>320852.91666666669</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="11"/>
+        <v>470</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="7"/>
+        <v>1010</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="9"/>
-        <v>470</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="6"/>
-        <v>1010</v>
+        <v>3.5643564356435644</v>
       </c>
       <c r="G98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12578</v>
       </c>
       <c r="H98">
-        <f t="shared" si="11"/>
-        <v>11533.175137030659</v>
+        <f t="shared" si="13"/>
+        <v>7700470</v>
       </c>
       <c r="I98">
         <f>H98/G98</f>
-        <v>0.91693235307923826</v>
+        <v>612.21736365081892</v>
       </c>
       <c r="J98">
-        <f t="shared" si="7"/>
-        <v>491.52366023787431</v>
+        <f t="shared" si="9"/>
+        <v>331470.41666666669</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="7"/>
+        <v>1020</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="9"/>
-        <v>480</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="6"/>
-        <v>1020</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="G99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12854</v>
       </c>
       <c r="H99">
-        <f t="shared" si="11"/>
-        <v>11796.567845708983</v>
+        <f t="shared" si="13"/>
+        <v>7955290</v>
       </c>
       <c r="I99">
         <f>H99/G99</f>
-        <v>0.91773516770724939</v>
+        <v>618.89606348218456</v>
       </c>
       <c r="J99">
-        <f t="shared" si="7"/>
-        <v>502.62823423275728</v>
+        <f t="shared" si="9"/>
+        <v>342319.58333333331</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="11"/>
+        <v>490</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="7"/>
+        <v>1030</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="9"/>
-        <v>490</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="6"/>
-        <v>1030</v>
+        <v>3.4951456310679609</v>
       </c>
       <c r="G100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13133</v>
       </c>
       <c r="H100">
-        <f t="shared" si="11"/>
-        <v>12063.077621586175</v>
+        <f t="shared" si="13"/>
+        <v>8215670</v>
       </c>
       <c r="I100">
         <f>H100/G100</f>
-        <v>0.9185317613329913</v>
+        <v>625.57450696718195</v>
       </c>
       <c r="J100">
-        <f t="shared" si="7"/>
-        <v>513.86282427146364</v>
+        <f t="shared" si="9"/>
+        <v>353402.91666666669</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="7"/>
+        <v>1040</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="6"/>
-        <v>1040</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="G101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13415</v>
       </c>
       <c r="H101">
-        <f t="shared" si="11"/>
-        <v>12332.707782515126</v>
+        <f t="shared" si="13"/>
+        <v>8481670</v>
       </c>
       <c r="I101">
         <f>H101/G101</f>
-        <v>0.91932223499926402</v>
+        <v>632.25270219903098</v>
       </c>
       <c r="J101">
-        <f t="shared" si="7"/>
-        <v>525.22756728744673</v>
+        <f t="shared" si="9"/>
+        <v>364722.91666666669</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="11"/>
+        <v>510</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="9"/>
-        <v>510</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="6"/>
-        <v>1050</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="G102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13700</v>
       </c>
       <c r="H102">
-        <f t="shared" si="11"/>
-        <v>12605.461614898721</v>
+        <f t="shared" si="13"/>
+        <v>8753350</v>
       </c>
       <c r="I102">
         <f>H102/G102</f>
-        <v>0.92010668721888467</v>
+        <v>638.93065693430663</v>
       </c>
       <c r="J102">
-        <f t="shared" si="7"/>
-        <v>536.72259892969339</v>
+        <f t="shared" si="9"/>
+        <v>376282.08333333331</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="11"/>
+        <v>520</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="7"/>
+        <v>1060</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="9"/>
-        <v>520</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="6"/>
-        <v>1060</v>
+        <v>3.3962264150943398</v>
       </c>
       <c r="G103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13988</v>
       </c>
       <c r="H103">
-        <f t="shared" si="11"/>
-        <v>12881.342374312642</v>
+        <f t="shared" si="13"/>
+        <v>9030770</v>
       </c>
       <c r="I103">
         <f>H103/G103</f>
-        <v>0.92088521406295698</v>
+        <v>645.60837861023731</v>
       </c>
       <c r="J103">
-        <f t="shared" si="7"/>
-        <v>548.34805358789788</v>
+        <f t="shared" si="9"/>
+        <v>388082.91666666669</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="11"/>
+        <v>530</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="7"/>
+        <v>1070</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="6"/>
-        <v>1070</v>
+        <v>3.3644859813084111</v>
       </c>
       <c r="G104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14279</v>
       </c>
       <c r="H104">
-        <f t="shared" si="11"/>
-        <v>13160.353286109548</v>
+        <f t="shared" si="13"/>
+        <v>9313990</v>
       </c>
       <c r="I104">
         <f>H104/G104</f>
-        <v>0.92165790924501356</v>
+        <v>652.28587436094961</v>
       </c>
       <c r="J104">
-        <f t="shared" si="7"/>
-        <v>560.10406441688997</v>
+        <f t="shared" si="9"/>
+        <v>400127.91666666669</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="11"/>
+        <v>540</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="6"/>
-        <v>1080</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14573</v>
       </c>
       <c r="H105">
-        <f t="shared" si="11"/>
-        <v>13442.497546005359</v>
+        <f t="shared" si="13"/>
+        <v>9603070</v>
       </c>
       <c r="I105">
         <f>H105/G105</f>
-        <v>0.92242486420128722</v>
+        <v>658.96315103273173</v>
       </c>
       <c r="J105">
-        <f t="shared" si="7"/>
-        <v>571.9907633603483</v>
+        <f t="shared" si="9"/>
+        <v>412419.58333333331</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="11"/>
+        <v>550</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="7"/>
+        <v>1090</v>
+      </c>
+      <c r="D106">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="9"/>
-        <v>550</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="6"/>
-        <v>1090</v>
+        <v>3.3027522935779818</v>
       </c>
       <c r="G106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14870</v>
       </c>
       <c r="H106">
-        <f t="shared" si="11"/>
-        <v>13727.77832064836</v>
+        <f t="shared" si="13"/>
+        <v>9898070</v>
       </c>
       <c r="I106">
         <f>H106/G106</f>
-        <v>0.923186168167341</v>
+        <v>665.64021519838604</v>
       </c>
       <c r="J106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
+        <f t="shared" si="10"/>
         <v>101</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="11"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="11"/>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="11"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="11"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="11"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="11"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="11"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="11"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="11"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="11"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="11"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="11"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="11"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="11"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="11"/>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="11"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <f t="shared" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="11"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="11"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="11"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="11"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="11"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="11"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="11"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <f t="shared" si="10"/>
+        <v>127</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="11"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="11"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="11"/>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="11"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <f t="shared" ref="A137:A200" si="14">A136+1</f>
+        <v>131</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137:B200" si="15">B136 + FLOOR((A137-1)/10+1,1)</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <f t="shared" si="14"/>
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="15"/>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <f t="shared" si="14"/>
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="15"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="15"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="15"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <f t="shared" si="14"/>
+        <v>136</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="15"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <f t="shared" si="14"/>
+        <v>137</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="15"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <f t="shared" si="14"/>
+        <v>138</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="15"/>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <f t="shared" si="14"/>
+        <v>139</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="15"/>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <f t="shared" si="14"/>
+        <v>140</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="15"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <f t="shared" si="14"/>
+        <v>141</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="15"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <f t="shared" si="14"/>
+        <v>142</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="15"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <f t="shared" si="14"/>
+        <v>143</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="15"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="15"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="15"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="15"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <f t="shared" si="14"/>
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="15"/>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="15"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="15"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="15"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="15"/>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="15"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="15"/>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <f t="shared" si="14"/>
+        <v>155</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="15"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <f t="shared" si="14"/>
+        <v>156</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="15"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="15"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="15"/>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <f t="shared" si="14"/>
+        <v>159</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="15"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="15"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <f t="shared" si="14"/>
+        <v>161</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="15"/>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="15"/>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="15"/>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <f t="shared" si="14"/>
+        <v>164</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="15"/>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="15"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <f t="shared" si="14"/>
+        <v>166</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="15"/>
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="15"/>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="15"/>
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="15"/>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="15"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="15"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <f t="shared" si="14"/>
+        <v>172</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="15"/>
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="15"/>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="15"/>
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="15"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="15"/>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="15"/>
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="15"/>
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="15"/>
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="15"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="15"/>
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="15"/>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="15"/>
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="15"/>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="15"/>
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="15"/>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="15"/>
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="15"/>
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="15"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="15"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="15"/>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="15"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="15"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <f t="shared" ref="A201:A264" si="16">A200+1</f>
+        <v>195</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ref="B201:B264" si="17">B200 + FLOOR((A201-1)/10+1,1)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <f t="shared" si="16"/>
+        <v>196</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="17"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <f t="shared" si="16"/>
+        <v>197</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="17"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <f t="shared" si="16"/>
+        <v>198</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="17"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <f t="shared" si="16"/>
+        <v>199</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="17"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="17"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <f t="shared" si="16"/>
+        <v>201</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="17"/>
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="17"/>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <f t="shared" si="16"/>
+        <v>203</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="17"/>
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <f t="shared" si="16"/>
+        <v>204</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="17"/>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <f t="shared" si="16"/>
+        <v>205</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="17"/>
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <f t="shared" si="16"/>
+        <v>206</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="17"/>
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <f t="shared" si="16"/>
+        <v>207</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="17"/>
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <f t="shared" si="16"/>
+        <v>208</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="17"/>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <f t="shared" si="16"/>
+        <v>209</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="17"/>
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="17"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <f t="shared" si="16"/>
+        <v>211</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="17"/>
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <f t="shared" si="16"/>
+        <v>212</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="17"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <f t="shared" si="16"/>
+        <v>213</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="17"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <f t="shared" si="16"/>
+        <v>214</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="17"/>
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <f t="shared" si="16"/>
+        <v>215</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="17"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <f t="shared" si="16"/>
+        <v>216</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="17"/>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <f t="shared" si="16"/>
+        <v>217</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="17"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <f t="shared" si="16"/>
+        <v>218</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="17"/>
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <f t="shared" si="16"/>
+        <v>219</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="17"/>
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="17"/>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <f t="shared" si="16"/>
+        <v>221</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="17"/>
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <f t="shared" si="16"/>
+        <v>222</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="17"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <f t="shared" si="16"/>
+        <v>223</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="17"/>
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <f t="shared" si="16"/>
+        <v>224</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="17"/>
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="17"/>
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <f t="shared" si="16"/>
+        <v>226</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="17"/>
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <f t="shared" si="16"/>
+        <v>227</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="17"/>
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <f t="shared" si="16"/>
+        <v>228</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="17"/>
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <f t="shared" si="16"/>
+        <v>229</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="17"/>
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="17"/>
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <f t="shared" si="16"/>
+        <v>231</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="17"/>
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <f t="shared" si="16"/>
+        <v>232</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="17"/>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <f t="shared" si="16"/>
+        <v>233</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="17"/>
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <f t="shared" si="16"/>
+        <v>235</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="17"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <f t="shared" si="16"/>
+        <v>236</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="17"/>
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <f t="shared" si="16"/>
+        <v>237</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="17"/>
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <f t="shared" si="16"/>
+        <v>238</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="17"/>
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <f t="shared" si="16"/>
+        <v>239</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="17"/>
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <f t="shared" si="16"/>
+        <v>240</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <f t="shared" si="16"/>
+        <v>241</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="17"/>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <f t="shared" si="16"/>
+        <v>242</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="17"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <f t="shared" si="16"/>
+        <v>243</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="17"/>
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <f t="shared" si="16"/>
+        <v>244</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="17"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <f t="shared" si="16"/>
+        <v>245</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="17"/>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <f t="shared" si="16"/>
+        <v>246</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="17"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <f t="shared" si="16"/>
+        <v>247</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="17"/>
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <f t="shared" si="16"/>
+        <v>248</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="17"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <f t="shared" si="16"/>
+        <v>249</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="17"/>
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="17"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <f t="shared" si="16"/>
+        <v>251</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="17"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <f t="shared" si="16"/>
+        <v>252</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="17"/>
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <f t="shared" si="16"/>
+        <v>253</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="17"/>
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <f t="shared" si="16"/>
+        <v>254</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="17"/>
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="17"/>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <f t="shared" si="16"/>
+        <v>256</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="17"/>
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <f t="shared" si="16"/>
+        <v>257</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="17"/>
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <f t="shared" si="16"/>
+        <v>258</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="17"/>
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <f t="shared" ref="A265:A312" si="18">A264+1</f>
+        <v>259</v>
+      </c>
+      <c r="B265">
+        <f t="shared" ref="B265:B312" si="19">B264 + FLOOR((A265-1)/10+1,1)</f>
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <f t="shared" si="18"/>
+        <v>260</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="19"/>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <f t="shared" si="18"/>
+        <v>261</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="19"/>
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <f t="shared" si="18"/>
+        <v>262</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="19"/>
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <f t="shared" si="18"/>
+        <v>263</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="19"/>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <f t="shared" si="18"/>
+        <v>264</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="19"/>
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <f t="shared" si="18"/>
+        <v>265</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="19"/>
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="19"/>
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <f t="shared" si="18"/>
+        <v>267</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="19"/>
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <f t="shared" si="18"/>
+        <v>268</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="19"/>
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <f t="shared" si="18"/>
+        <v>269</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="19"/>
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <f t="shared" si="18"/>
+        <v>270</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="19"/>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <f t="shared" si="18"/>
+        <v>271</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="19"/>
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <f t="shared" si="18"/>
+        <v>272</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="19"/>
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <f t="shared" si="18"/>
+        <v>273</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="19"/>
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <f t="shared" si="18"/>
+        <v>274</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="19"/>
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <f t="shared" si="18"/>
+        <v>275</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="19"/>
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <f t="shared" si="18"/>
+        <v>276</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="19"/>
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <f t="shared" si="18"/>
+        <v>277</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="19"/>
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <f t="shared" si="18"/>
+        <v>278</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="19"/>
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <f t="shared" si="18"/>
+        <v>279</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="19"/>
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <f t="shared" si="18"/>
+        <v>280</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="19"/>
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <f t="shared" si="18"/>
+        <v>281</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="19"/>
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <f t="shared" si="18"/>
+        <v>282</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="19"/>
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <f t="shared" si="18"/>
+        <v>283</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="19"/>
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <f t="shared" si="18"/>
+        <v>284</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="19"/>
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <f t="shared" si="18"/>
+        <v>285</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="19"/>
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <f t="shared" si="18"/>
+        <v>286</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="19"/>
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <f t="shared" si="18"/>
+        <v>287</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="19"/>
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <f t="shared" si="18"/>
+        <v>288</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="19"/>
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <f t="shared" si="18"/>
+        <v>289</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="19"/>
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <f t="shared" si="18"/>
+        <v>290</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="19"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <f t="shared" si="18"/>
+        <v>291</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="19"/>
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <f t="shared" si="18"/>
+        <v>292</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="19"/>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <f t="shared" si="18"/>
+        <v>293</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="19"/>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <f t="shared" si="18"/>
+        <v>294</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="19"/>
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <f t="shared" si="18"/>
+        <v>295</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="19"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <f t="shared" si="18"/>
+        <v>296</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="19"/>
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <f t="shared" si="18"/>
+        <v>297</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="19"/>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <f t="shared" si="18"/>
+        <v>298</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="19"/>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <f t="shared" si="18"/>
+        <v>299</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="19"/>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <f t="shared" si="18"/>
+        <v>300</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="19"/>
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <f t="shared" si="18"/>
+        <v>301</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="19"/>
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <f t="shared" si="18"/>
+        <v>302</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="19"/>
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <f t="shared" si="18"/>
+        <v>303</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="19"/>
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <f t="shared" si="18"/>
+        <v>304</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="19"/>
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <f t="shared" si="18"/>
+        <v>305</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="19"/>
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <f t="shared" si="18"/>
+        <v>306</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="19"/>
+        <v>4836</v>
       </c>
     </row>
   </sheetData>

--- a/db/compute.xlsx
+++ b/db/compute.xlsx
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M312"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="L301" sqref="L301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,7 +438,7 @@
     <col min="8" max="8" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -452,7 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -468,7 +468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,7 +476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f>A7*10+90</f>
+        <f t="shared" ref="C7:C70" si="0">A7*10+90 + FLOOR((A7)/5,1)*20</f>
         <v>100</v>
       </c>
       <c r="D7">
@@ -524,8 +524,12 @@
         <f>H8/24</f>
         <v>2.9166666666666665</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <f>POWER(A8,3.05)*100-2000</f>
+        <v>-1171.7880609268982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>A7+1</f>
         <v>2</v>
@@ -535,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C71" si="0">A8*10+90</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="D8">
@@ -559,19 +563,17 @@
         <v>7.916666666666667</v>
       </c>
       <c r="L8">
-        <v>5.0009656951016206</v>
-      </c>
-      <c r="M8">
-        <v>5.2153203876088794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="L8:L26" si="3">POWER(A9,3.05)*100-2000</f>
+        <v>852.46173308375273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f t="shared" ref="A9:A72" si="3">A8+1</f>
+        <f t="shared" ref="A9:A72" si="4">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B72" si="4">B8 + FLOOR((A9-1)/10+1,1)</f>
+        <f t="shared" ref="B9:B72" si="5">B8 + FLOOR((A9-1)/10+1,1)</f>
         <v>3</v>
       </c>
       <c r="C9">
@@ -583,11 +585,11 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G72" si="5">G8+3*A8</f>
+        <f t="shared" ref="G9:G72" si="6">G8+3*A8</f>
         <v>29</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H72" si="6">H8 + POWER(A9,$H$2)*$H$3 - A9*$H$4</f>
+        <f t="shared" ref="H9:H72" si="7">H8 + POWER(A9,$H$2)*$H$3 - A9*$H$4</f>
         <v>190</v>
       </c>
       <c r="I9">
@@ -599,19 +601,17 @@
         <v>19.583333333333332</v>
       </c>
       <c r="L9">
-        <v>9.6886830260440195</v>
-      </c>
-      <c r="M9">
-        <v>10.23787467076145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>4859.3501602322731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C10">
@@ -623,11 +623,11 @@
         <v>27.692307692307693</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="I10">
@@ -639,35 +639,33 @@
         <v>40.416666666666664</v>
       </c>
       <c r="L10">
-        <v>16.121393814027414</v>
-      </c>
-      <c r="M10">
-        <v>17.130064800743661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>11547.479834179594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>25.714285714285715</v>
+        <v>22.5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>970</v>
       </c>
       <c r="I11">
@@ -679,35 +677,33 @@
         <v>72.916666666666671</v>
       </c>
       <c r="L11">
-        <v>24.343726415643545</v>
-      </c>
-      <c r="M11">
-        <v>25.939706873903802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>21624.428630891147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B12">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>A12*10+90 + FLOOR((A12)/5,1)*20</f>
+        <v>170</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>21.176470588235293</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="I12">
@@ -719,35 +715,33 @@
         <v>119.58333333333333</v>
       </c>
       <c r="L12">
-        <v>34.392068485994599</v>
-      </c>
-      <c r="M12">
-        <v>36.705787663565644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>35804.980818293261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B13">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" ref="C13:C76" si="8">A13*10+90 + FLOOR((A13)/5,1)*20</f>
+        <v>180</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2870</v>
       </c>
       <c r="I13">
@@ -759,35 +753,33 @@
         <v>182.91666666666666</v>
       </c>
       <c r="L13">
-        <v>46.297246117577458</v>
-      </c>
-      <c r="M13">
-        <v>49.46133512597585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>54809.95696987363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B14">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>170</v>
+        <f t="shared" si="8"/>
+        <v>190</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>21.176470588235293</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4390</v>
       </c>
       <c r="I14">
@@ -799,35 +791,33 @@
         <v>265.41666666666669</v>
       </c>
       <c r="L14">
-        <v>60.086063547040517</v>
-      </c>
-      <c r="M14">
-        <v>64.235068086114836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>79365.379387071662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6370</v>
       </c>
       <c r="I15">
@@ -839,35 +829,33 @@
         <v>369.58333333333331</v>
       </c>
       <c r="L15">
-        <v>75.782273386196039</v>
-      </c>
-      <c r="M15">
-        <v>81.052435770924319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>110201.84543019636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B16">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f t="shared" si="8"/>
+        <v>230</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>18.94736842105263</v>
+        <v>15.652173913043478</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8870</v>
       </c>
       <c r="I16">
@@ -879,35 +867,33 @@
         <v>497.91666666666669</v>
       </c>
       <c r="L16">
-        <v>93.407229151314397</v>
-      </c>
-      <c r="M16">
-        <v>99.936316947836843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>148054.03897340756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>240</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11950</v>
       </c>
       <c r="I17">
@@ -919,35 +905,33 @@
         <v>652.91666666666663</v>
       </c>
       <c r="L17">
-        <v>112.98034602555057</v>
-      </c>
-      <c r="M17">
-        <v>120.90751359880417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>193660.33845884461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>17.142857142857142</v>
+        <v>14.4</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>218</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15670</v>
       </c>
       <c r="I18">
@@ -959,35 +943,33 @@
         <v>837.08333333333337</v>
       </c>
       <c r="L18">
-        <v>134.51943877252907</v>
-      </c>
-      <c r="M18">
-        <v>143.98511297056686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>247762.49523887501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="8"/>
+        <v>260</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>16.363636363636363</v>
+        <v>13.846153846153847</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>254</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20090</v>
       </c>
       <c r="I19">
@@ -999,35 +981,33 @@
         <v>1052.9166666666667</v>
       </c>
       <c r="L19">
-        <v>158.04097719074022</v>
-      </c>
-      <c r="M19">
-        <v>169.18676127579309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>311105.36470140057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <f t="shared" si="8"/>
+        <v>270</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>15.652173913043478</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25270</v>
       </c>
       <c r="I20">
@@ -1039,35 +1019,33 @@
         <v>1302.9166666666667</v>
       </c>
       <c r="L20">
-        <v>183.56028409536259</v>
-      </c>
-      <c r="M20">
-        <v>196.5288758164599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>384436.678067211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31270</v>
       </c>
       <c r="I21">
@@ -1079,35 +1057,33 @@
         <v>1589.5833333333333</v>
       </c>
       <c r="L21">
-        <v>211.09169197919735</v>
-      </c>
-      <c r="M21">
-        <v>226.02681283485427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>468506.84620678524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>310</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>14.4</v>
+        <v>11.612903225806452</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38150</v>
       </c>
       <c r="I22">
@@ -1119,35 +1095,33 @@
         <v>1915.4166666666667</v>
       </c>
       <c r="L22">
-        <v>240.64866918051018</v>
-      </c>
-      <c r="M22">
-        <v>257.69500269340375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>564068.78912643855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f t="shared" si="8"/>
+        <v>320</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>13.846153846153847</v>
+        <v>11.25</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45970</v>
       </c>
       <c r="I23">
@@ -1159,35 +1133,33 @@
         <v>2282.9166666666665</v>
       </c>
       <c r="L23">
-        <v>272.24392304285692</v>
-      </c>
-      <c r="M23">
-        <v>291.54706040306098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>671877.78635585099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>270</v>
+        <f t="shared" si="8"/>
+        <v>330</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54790</v>
       </c>
       <c r="I24">
@@ -1199,35 +1171,33 @@
         <v>2694.5833333333335</v>
       </c>
       <c r="L24">
-        <v>305.88948537887279</v>
-      </c>
-      <c r="M24">
-        <v>327.59587719164944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>792691.34458596318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>280</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>12.857142857142858</v>
+        <v>10.588235294117647</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>533</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64670</v>
       </c>
       <c r="I25">
@@ -1239,35 +1209,33 @@
         <v>3152.9166666666665</v>
       </c>
       <c r="L25">
-        <v>341.59678409446479</v>
-      </c>
-      <c r="M25">
-        <v>365.85369724406945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>927269.07971323212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f t="shared" si="8"/>
+        <v>370</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>12.413793103448276</v>
+        <v>9.7297297297297298</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>590</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75670</v>
       </c>
       <c r="I26">
@@ -1279,35 +1247,33 @@
         <v>3660.4166666666665</v>
       </c>
       <c r="L26">
-        <v>379.37670382932458</v>
-      </c>
-      <c r="M26">
-        <v>406.33218267427634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>1076372.6110414667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>650</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87850</v>
       </c>
       <c r="I27">
@@ -1319,29 +1285,29 @@
         <v>4219.583333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>310</v>
+        <f t="shared" si="8"/>
+        <v>390</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>11.612903225806452</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>713</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101270</v>
       </c>
       <c r="I28">
@@ -1353,29 +1319,29 @@
         <v>4832.916666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>320</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>779</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115990</v>
       </c>
       <c r="I29">
@@ -1387,29 +1353,29 @@
         <v>5502.916666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>330</v>
+        <f t="shared" si="8"/>
+        <v>410</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>10.909090909090908</v>
+        <v>8.7804878048780495</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>848</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132070</v>
       </c>
       <c r="I30">
@@ -1421,29 +1387,29 @@
         <v>6232.083333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f t="shared" si="8"/>
+        <v>440</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>10.588235294117647</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>920</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149570</v>
       </c>
       <c r="I31">
@@ -1455,29 +1421,29 @@
         <v>7022.916666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="8"/>
+        <v>450</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>10.285714285714286</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>995</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168550</v>
       </c>
       <c r="I32">
@@ -1491,27 +1457,27 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f t="shared" si="8"/>
+        <v>460</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7.8260869565217392</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1073</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>189070</v>
       </c>
       <c r="I33">
@@ -1525,27 +1491,27 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>370</v>
+        <f t="shared" si="8"/>
+        <v>470</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>9.7297297297297298</v>
+        <v>7.6595744680851068</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1154</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>211190</v>
       </c>
       <c r="I34">
@@ -1559,27 +1525,27 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>380</v>
+        <f t="shared" si="8"/>
+        <v>480</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>9.473684210526315</v>
+        <v>7.5</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1238</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>234970</v>
       </c>
       <c r="I35">
@@ -1593,27 +1559,27 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>390</v>
+        <f t="shared" si="8"/>
+        <v>510</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>9.2307692307692299</v>
+        <v>7.0588235294117645</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1325</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>260470</v>
       </c>
       <c r="I36">
@@ -1627,27 +1593,27 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f t="shared" si="8"/>
+        <v>520</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6.9230769230769234</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1415</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>287750</v>
       </c>
       <c r="I37">
@@ -1661,27 +1627,27 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>410</v>
+        <f t="shared" si="8"/>
+        <v>530</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>8.7804878048780495</v>
+        <v>6.7924528301886795</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1508</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>316870</v>
       </c>
       <c r="I38">
@@ -1695,27 +1661,27 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <f t="shared" si="8"/>
+        <v>540</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>8.5714285714285712</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1604</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>347890</v>
       </c>
       <c r="I39">
@@ -1729,27 +1695,27 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>430</v>
+        <f t="shared" si="8"/>
+        <v>550</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>8.3720930232558146</v>
+        <v>6.5454545454545459</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1703</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380870</v>
       </c>
       <c r="I40">
@@ -1763,27 +1729,27 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>440</v>
+        <f t="shared" si="8"/>
+        <v>580</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
+        <v>6.2068965517241379</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1805</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>415870</v>
       </c>
       <c r="I41">
@@ -1797,27 +1763,27 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>450</v>
+        <f t="shared" si="8"/>
+        <v>590</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6.101694915254237</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1910</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>452950</v>
       </c>
       <c r="I42">
@@ -1831,27 +1797,27 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>460</v>
+        <f t="shared" si="8"/>
+        <v>600</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>7.8260869565217392</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>492170</v>
       </c>
       <c r="I43">
@@ -1865,27 +1831,27 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>470</v>
+        <f t="shared" si="8"/>
+        <v>610</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>7.6595744680851068</v>
+        <v>5.9016393442622954</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2129</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>533590</v>
       </c>
       <c r="I44">
@@ -1899,27 +1865,27 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f t="shared" si="8"/>
+        <v>620</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>5.806451612903226</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2243</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>577270</v>
       </c>
       <c r="I45">
@@ -1933,27 +1899,27 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <f t="shared" si="8"/>
+        <v>650</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>7.3469387755102042</v>
+        <v>5.5384615384615383</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2360</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>623270</v>
       </c>
       <c r="I46">
@@ -1967,27 +1933,27 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" si="8"/>
+        <v>660</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>7.2</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2480</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>671650</v>
       </c>
       <c r="I47">
@@ -2001,27 +1967,27 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>510</v>
+        <f t="shared" si="8"/>
+        <v>670</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>7.0588235294117645</v>
+        <v>5.3731343283582094</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2603</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>722470</v>
       </c>
       <c r="I48">
@@ -2035,27 +2001,27 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>520</v>
+        <f t="shared" si="8"/>
+        <v>680</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>6.9230769230769234</v>
+        <v>5.2941176470588234</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2729</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>775790</v>
       </c>
       <c r="I49">
@@ -2069,27 +2035,27 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>530</v>
+        <f t="shared" si="8"/>
+        <v>690</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>6.7924528301886795</v>
+        <v>5.2173913043478262</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2858</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>831670</v>
       </c>
       <c r="I50">
@@ -2103,27 +2069,27 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>540</v>
+        <f t="shared" si="8"/>
+        <v>720</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2990</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>890170</v>
       </c>
       <c r="I51">
@@ -2137,27 +2103,27 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>550</v>
+        <f t="shared" si="8"/>
+        <v>730</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>6.5454545454545459</v>
+        <v>4.9315068493150687</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3125</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>951350</v>
       </c>
       <c r="I52">
@@ -2171,27 +2137,27 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f t="shared" si="8"/>
+        <v>740</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
+        <v>4.8648648648648649</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3263</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1015270</v>
       </c>
       <c r="I53">
@@ -2205,27 +2171,27 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>570</v>
+        <f t="shared" si="8"/>
+        <v>750</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>6.3157894736842106</v>
+        <v>4.8</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3404</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1081990</v>
       </c>
       <c r="I54">
@@ -2239,27 +2205,27 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>580</v>
+        <f t="shared" si="8"/>
+        <v>760</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>6.2068965517241379</v>
+        <v>4.7368421052631575</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3548</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1151570</v>
       </c>
       <c r="I55">
@@ -2273,27 +2239,27 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>590</v>
+        <f t="shared" si="8"/>
+        <v>790</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>6.101694915254237</v>
+        <v>4.556962025316456</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3695</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1224070</v>
       </c>
       <c r="I56">
@@ -2307,27 +2273,27 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>800</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3845</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1299550</v>
       </c>
       <c r="I57">
@@ -2341,27 +2307,27 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>610</v>
+        <f t="shared" si="8"/>
+        <v>810</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>5.9016393442622954</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3998</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1378070</v>
       </c>
       <c r="I58">
@@ -2375,27 +2341,27 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>620</v>
+        <f t="shared" si="8"/>
+        <v>820</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>5.806451612903226</v>
+        <v>4.3902439024390247</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4154</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1459690</v>
       </c>
       <c r="I59">
@@ -2409,27 +2375,27 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>630</v>
+        <f t="shared" si="8"/>
+        <v>830</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>5.7142857142857144</v>
+        <v>4.3373493975903612</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4313</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1544470</v>
       </c>
       <c r="I60">
@@ -2443,27 +2409,27 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>640</v>
+        <f t="shared" si="8"/>
+        <v>860</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>5.625</v>
+        <v>4.1860465116279073</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4475</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1632470</v>
       </c>
       <c r="I61">
@@ -2477,27 +2443,27 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>650</v>
+        <f t="shared" si="8"/>
+        <v>870</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>5.5384615384615383</v>
+        <v>4.1379310344827589</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4640</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1723750</v>
       </c>
       <c r="I62">
@@ -2511,27 +2477,27 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>660</v>
+        <f t="shared" si="8"/>
+        <v>880</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4808</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1818370</v>
       </c>
       <c r="I63">
@@ -2545,27 +2511,27 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>670</v>
+        <f t="shared" si="8"/>
+        <v>890</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>5.3731343283582094</v>
+        <v>4.0449438202247192</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4979</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1916390</v>
       </c>
       <c r="I64">
@@ -2579,27 +2545,27 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>680</v>
+        <f t="shared" si="8"/>
+        <v>900</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>5.2941176470588234</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5153</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2017870</v>
       </c>
       <c r="I65">
@@ -2613,27 +2579,27 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>690</v>
+        <f t="shared" si="8"/>
+        <v>930</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>5.2173913043478262</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5330</v>
       </c>
       <c r="H66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2122870</v>
       </c>
       <c r="I66">
@@ -2647,27 +2613,27 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>700</v>
+        <f t="shared" si="8"/>
+        <v>940</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>5.1428571428571432</v>
+        <v>3.8297872340425534</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5510</v>
       </c>
       <c r="H67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2231450</v>
       </c>
       <c r="I67">
@@ -2681,27 +2647,27 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>224</v>
       </c>
       <c r="C68">
-        <f t="shared" si="0"/>
-        <v>710</v>
+        <f t="shared" si="8"/>
+        <v>950</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>5.070422535211268</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5693</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2343670</v>
       </c>
       <c r="I68">
@@ -2715,27 +2681,27 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>231</v>
       </c>
       <c r="C69">
-        <f t="shared" si="0"/>
-        <v>720</v>
+        <f t="shared" si="8"/>
+        <v>960</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5879</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2459590</v>
       </c>
       <c r="I69">
@@ -2749,27 +2715,27 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="C70">
-        <f t="shared" si="0"/>
-        <v>730</v>
+        <f t="shared" si="8"/>
+        <v>970</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>4.9315068493150687</v>
+        <v>3.7113402061855671</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6068</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2579270</v>
       </c>
       <c r="I70">
@@ -2783,27 +2749,27 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>245</v>
       </c>
       <c r="C71">
-        <f t="shared" si="0"/>
-        <v>740</v>
+        <f t="shared" si="8"/>
+        <v>1000</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>4.8648648648648649</v>
+        <v>3.6</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6260</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2702770</v>
       </c>
       <c r="I71">
@@ -2817,27 +2783,27 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C106" si="7">A72*10+90</f>
-        <v>750</v>
+        <f t="shared" si="8"/>
+        <v>1010</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D106" si="8">3600/C72</f>
-        <v>4.8</v>
+        <f t="shared" ref="D72:D106" si="9">3600/C72</f>
+        <v>3.5643564356435644</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6455</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2830150</v>
       </c>
       <c r="I72">
@@ -2845,33 +2811,33 @@
         <v>438.44306738962047</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J106" si="9">H73/24</f>
+        <f t="shared" ref="J72:J106" si="10">H73/24</f>
         <v>123394.58333333333</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
-        <f t="shared" ref="A73:A136" si="10">A72+1</f>
+        <f t="shared" ref="A73:A136" si="11">A72+1</f>
         <v>67</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B136" si="11">B72 + FLOOR((A73-1)/10+1,1)</f>
+        <f t="shared" ref="B73:B136" si="12">B72 + FLOOR((A73-1)/10+1,1)</f>
         <v>259</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
-        <v>760</v>
+        <f t="shared" si="8"/>
+        <v>1020</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
-        <v>4.7368421052631575</v>
+        <f t="shared" si="9"/>
+        <v>3.5294117647058822</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G106" si="12">G72+3*A72</f>
+        <f t="shared" ref="G73:G106" si="13">G72+3*A72</f>
         <v>6653</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H107" si="13">H72 + POWER(A73,$H$2)*$H$3 - A73*$H$4</f>
+        <f t="shared" ref="H73:H107" si="14">H72 + POWER(A73,$H$2)*$H$3 - A73*$H$4</f>
         <v>2961470</v>
       </c>
       <c r="I73">
@@ -2879,33 +2845,33 @@
         <v>445.13302269652786</v>
       </c>
       <c r="J73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>129032.91666666667</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="B74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>266</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
-        <v>770</v>
+        <f t="shared" si="8"/>
+        <v>1030</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
-        <v>4.6753246753246751</v>
+        <f t="shared" si="9"/>
+        <v>3.4951456310679609</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6854</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3096790</v>
       </c>
       <c r="I74">
@@ -2913,33 +2879,33 @@
         <v>451.82229355121098</v>
       </c>
       <c r="J74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>134840.41666666666</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="B75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
-        <v>780</v>
+        <f t="shared" si="8"/>
+        <v>1040</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
-        <v>4.615384615384615</v>
+        <f t="shared" si="9"/>
+        <v>3.4615384615384617</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7058</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3236170</v>
       </c>
       <c r="I75">
@@ -2947,33 +2913,33 @@
         <v>458.51090960612072</v>
       </c>
       <c r="J75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140819.58333333334</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="B76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
-        <v>790</v>
+        <f t="shared" si="8"/>
+        <v>1070</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
-        <v>4.556962025316456</v>
+        <f t="shared" si="9"/>
+        <v>3.3644859813084111</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7265</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3379670</v>
       </c>
       <c r="I76">
@@ -2981,33 +2947,33 @@
         <v>465.1988988300069</v>
       </c>
       <c r="J76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>146972.91666666666</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="B77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
-        <v>800</v>
+        <f t="shared" ref="C77:C140" si="15">A77*10+90 + FLOOR((A77)/5,1)*20</f>
+        <v>1080</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
-        <v>4.5</v>
+        <f t="shared" si="9"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7475</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3527350</v>
       </c>
       <c r="I77">
@@ -3015,33 +2981,33 @@
         <v>471.88628762541805</v>
       </c>
       <c r="J77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>153302.91666666666</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="B78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
-        <v>810</v>
+        <f t="shared" si="15"/>
+        <v>1090</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
-        <v>4.4444444444444446</v>
+        <f t="shared" si="9"/>
+        <v>3.3027522935779818</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7688</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3679270</v>
       </c>
       <c r="I78">
@@ -3049,33 +3015,33 @@
         <v>478.57310093652444</v>
       </c>
       <c r="J78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>159812.08333333334</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="B79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
-        <v>820</v>
+        <f t="shared" si="15"/>
+        <v>1100</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
-        <v>4.3902439024390247</v>
+        <f t="shared" si="9"/>
+        <v>3.2727272727272729</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7904</v>
       </c>
       <c r="H79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3835490</v>
       </c>
       <c r="I79">
@@ -3083,33 +3049,33 @@
         <v>485.25936234817812</v>
       </c>
       <c r="J79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>166502.91666666666</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="B80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>312</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
-        <v>830</v>
+        <f t="shared" si="15"/>
+        <v>1110</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
-        <v>4.3373493975903612</v>
+        <f t="shared" si="9"/>
+        <v>3.2432432432432434</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8123</v>
       </c>
       <c r="H80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3996070</v>
       </c>
       <c r="I80">
@@ -3117,33 +3083,33 @@
         <v>491.94509417702818</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173377.91666666666</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="B81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>320</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
-        <v>840</v>
+        <f t="shared" si="15"/>
+        <v>1140</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
-        <v>4.2857142857142856</v>
+        <f t="shared" si="9"/>
+        <v>3.1578947368421053</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8345</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4161070</v>
       </c>
       <c r="I81">
@@ -3151,33 +3117,33 @@
         <v>498.63031755542244</v>
       </c>
       <c r="J81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180439.58333333334</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="B82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>328</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
-        <v>850</v>
+        <f t="shared" si="15"/>
+        <v>1150</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
-        <v>4.2352941176470589</v>
+        <f t="shared" si="9"/>
+        <v>3.1304347826086958</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8570</v>
       </c>
       <c r="H82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4330550</v>
       </c>
       <c r="I82">
@@ -3185,33 +3151,33 @@
         <v>505.31505250875148</v>
       </c>
       <c r="J82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187690.41666666666</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="B83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>336</v>
       </c>
       <c r="C83">
-        <f t="shared" si="7"/>
-        <v>860</v>
+        <f t="shared" si="15"/>
+        <v>1160</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
-        <v>4.1860465116279073</v>
+        <f t="shared" si="9"/>
+        <v>3.103448275862069</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8798</v>
       </c>
       <c r="H83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4504570</v>
       </c>
       <c r="I83">
@@ -3219,33 +3185,33 @@
         <v>511.99931802682426</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195132.91666666666</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="B84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>344</v>
       </c>
       <c r="C84">
-        <f t="shared" si="7"/>
-        <v>870</v>
+        <f t="shared" si="15"/>
+        <v>1170</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
-        <v>4.1379310344827589</v>
+        <f t="shared" si="9"/>
+        <v>3.0769230769230771</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9029</v>
       </c>
       <c r="H84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4683190</v>
       </c>
       <c r="I84">
@@ -3253,33 +3219,33 @@
         <v>518.68313212980399</v>
       </c>
       <c r="J84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>202769.58333333334</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="B85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>352</v>
       </c>
       <c r="C85">
-        <f t="shared" si="7"/>
-        <v>880</v>
+        <f t="shared" si="15"/>
+        <v>1180</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
-        <v>4.0909090909090908</v>
+        <f t="shared" si="9"/>
+        <v>3.0508474576271185</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9263</v>
       </c>
       <c r="H85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4866470</v>
       </c>
       <c r="I85">
@@ -3287,33 +3253,33 @@
         <v>525.36651192918066</v>
       </c>
       <c r="J85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>210602.91666666666</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
       <c r="C86">
-        <f t="shared" si="7"/>
-        <v>890</v>
+        <f t="shared" si="15"/>
+        <v>1210</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
-        <v>4.0449438202247192</v>
+        <f t="shared" si="9"/>
+        <v>2.9752066115702478</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9500</v>
       </c>
       <c r="H86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5054470</v>
       </c>
       <c r="I86">
@@ -3321,33 +3287,33 @@
         <v>532.04947368421051</v>
       </c>
       <c r="J86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>218635.41666666666</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="B87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>369</v>
       </c>
       <c r="C87">
-        <f t="shared" si="7"/>
-        <v>900</v>
+        <f t="shared" si="15"/>
+        <v>1220</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>2.9508196721311477</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9740</v>
       </c>
       <c r="H87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5247250</v>
       </c>
       <c r="I87">
@@ -3355,33 +3321,33 @@
         <v>538.73203285420948</v>
       </c>
       <c r="J87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>226869.58333333334</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="B88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
-        <v>910</v>
+        <f t="shared" si="15"/>
+        <v>1230</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
-        <v>3.9560439560439562</v>
+        <f t="shared" si="9"/>
+        <v>2.9268292682926829</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9983</v>
       </c>
       <c r="H88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5444870</v>
       </c>
       <c r="I88">
@@ -3389,33 +3355,33 @@
         <v>545.41420414704999</v>
       </c>
       <c r="J88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>235307.91666666666</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="B89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>387</v>
       </c>
       <c r="C89">
-        <f t="shared" si="7"/>
-        <v>920</v>
+        <f t="shared" si="15"/>
+        <v>1240</v>
       </c>
       <c r="D89">
-        <f t="shared" si="8"/>
-        <v>3.9130434782608696</v>
+        <f t="shared" si="9"/>
+        <v>2.903225806451613</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10229</v>
       </c>
       <c r="H89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5647390</v>
       </c>
       <c r="I89">
@@ -3423,33 +3389,33 @@
         <v>552.09600156418026</v>
       </c>
       <c r="J89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>243952.91666666666</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="B90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>396</v>
       </c>
       <c r="C90">
-        <f t="shared" si="7"/>
-        <v>930</v>
+        <f t="shared" si="15"/>
+        <v>1250</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
-        <v>3.870967741935484</v>
+        <f t="shared" si="9"/>
+        <v>2.88</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10478</v>
       </c>
       <c r="H90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5854870</v>
       </c>
       <c r="I90">
@@ -3457,33 +3423,33 @@
         <v>558.77743844245083</v>
       </c>
       <c r="J90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>252807.08333333334</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="B91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>405</v>
       </c>
       <c r="C91">
-        <f t="shared" si="7"/>
-        <v>940</v>
+        <f t="shared" si="15"/>
+        <v>1280</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
-        <v>3.8297872340425534</v>
+        <f t="shared" si="9"/>
+        <v>2.8125</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10730</v>
       </c>
       <c r="H91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6067370</v>
       </c>
       <c r="I91">
@@ -3491,33 +3457,33 @@
         <v>565.45852749301025</v>
       </c>
       <c r="J91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>261872.91666666666</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="B92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>414</v>
       </c>
       <c r="C92">
-        <f t="shared" si="7"/>
-        <v>950</v>
+        <f t="shared" si="15"/>
+        <v>1290</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
-        <v>3.7894736842105261</v>
+        <f t="shared" si="9"/>
+        <v>2.7906976744186047</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10985</v>
       </c>
       <c r="H92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6284950</v>
       </c>
       <c r="I92">
@@ -3525,33 +3491,33 @@
         <v>572.13928083750568</v>
       </c>
       <c r="J92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>271152.91666666669</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="B93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>423</v>
       </c>
       <c r="C93">
-        <f t="shared" si="7"/>
-        <v>960</v>
+        <f t="shared" si="15"/>
+        <v>1300</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
-        <v>3.75</v>
+        <f t="shared" si="9"/>
+        <v>2.7692307692307692</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11243</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6507670</v>
       </c>
       <c r="I93">
@@ -3559,33 +3525,33 @@
         <v>578.81971004180377</v>
       </c>
       <c r="J93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>280649.58333333331</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="B94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>432</v>
       </c>
       <c r="C94">
-        <f t="shared" si="7"/>
-        <v>970</v>
+        <f t="shared" si="15"/>
+        <v>1310</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
-        <v>3.7113402061855671</v>
+        <f t="shared" si="9"/>
+        <v>2.7480916030534353</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11504</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6735590</v>
       </c>
       <c r="I94">
@@ -3593,33 +3559,33 @@
         <v>585.49982614742703</v>
       </c>
       <c r="J94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>290365.41666666669</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="B95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>441</v>
       </c>
       <c r="C95">
-        <f t="shared" si="7"/>
-        <v>980</v>
+        <f t="shared" si="15"/>
+        <v>1320</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
-        <v>3.6734693877551021</v>
+        <f t="shared" si="9"/>
+        <v>2.7272727272727271</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11768</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6968770</v>
       </c>
       <c r="I95">
@@ -3627,33 +3593,33 @@
         <v>592.17963970088374</v>
       </c>
       <c r="J95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300302.91666666669</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="B96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>450</v>
       </c>
       <c r="C96">
-        <f t="shared" si="7"/>
-        <v>990</v>
+        <f t="shared" si="15"/>
+        <v>1350</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
-        <v>3.6363636363636362</v>
+        <f t="shared" si="9"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12035</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7207270</v>
       </c>
       <c r="I96">
@@ -3661,33 +3627,33 @@
         <v>598.85916078105527</v>
       </c>
       <c r="J96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>310464.58333333331</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="B97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>460</v>
       </c>
       <c r="C97">
-        <f t="shared" si="7"/>
-        <v>1000</v>
+        <f t="shared" si="15"/>
+        <v>1360</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
-        <v>3.6</v>
+        <f t="shared" si="9"/>
+        <v>2.6470588235294117</v>
       </c>
       <c r="G97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12305</v>
       </c>
       <c r="H97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7451150</v>
       </c>
       <c r="I97">
@@ -3695,33 +3661,33 @@
         <v>605.53839902478671</v>
       </c>
       <c r="J97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>320852.91666666669</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="B98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>470</v>
       </c>
       <c r="C98">
-        <f t="shared" si="7"/>
-        <v>1010</v>
+        <f t="shared" si="15"/>
+        <v>1370</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
-        <v>3.5643564356435644</v>
+        <f t="shared" si="9"/>
+        <v>2.6277372262773722</v>
       </c>
       <c r="G98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12578</v>
       </c>
       <c r="H98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7700470</v>
       </c>
       <c r="I98">
@@ -3729,33 +3695,33 @@
         <v>612.21736365081892</v>
       </c>
       <c r="J98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>331470.41666666669</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="B99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>480</v>
       </c>
       <c r="C99">
-        <f t="shared" si="7"/>
-        <v>1020</v>
+        <f t="shared" si="15"/>
+        <v>1380</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
-        <v>3.5294117647058822</v>
+        <f t="shared" si="9"/>
+        <v>2.6086956521739131</v>
       </c>
       <c r="G99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12854</v>
       </c>
       <c r="H99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7955290</v>
       </c>
       <c r="I99">
@@ -3763,33 +3729,33 @@
         <v>618.89606348218456</v>
       </c>
       <c r="J99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>342319.58333333331</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="B100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>490</v>
       </c>
       <c r="C100">
-        <f t="shared" si="7"/>
-        <v>1030</v>
+        <f t="shared" si="15"/>
+        <v>1390</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
-        <v>3.4951456310679609</v>
+        <f t="shared" si="9"/>
+        <v>2.5899280575539567</v>
       </c>
       <c r="G100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13133</v>
       </c>
       <c r="H100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8215670</v>
       </c>
       <c r="I100">
@@ -3797,33 +3763,33 @@
         <v>625.57450696718195</v>
       </c>
       <c r="J100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>353402.91666666669</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="B101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="C101">
-        <f t="shared" si="7"/>
-        <v>1040</v>
+        <f t="shared" si="15"/>
+        <v>1420</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
-        <v>3.4615384615384617</v>
+        <f t="shared" si="9"/>
+        <v>2.535211267605634</v>
       </c>
       <c r="G101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13415</v>
       </c>
       <c r="H101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8481670</v>
       </c>
       <c r="I101">
@@ -3831,33 +3797,33 @@
         <v>632.25270219903098</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>364722.91666666669</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="B102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
-        <v>1050</v>
+        <f t="shared" si="15"/>
+        <v>1430</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
-        <v>3.4285714285714284</v>
+        <f t="shared" si="9"/>
+        <v>2.5174825174825175</v>
       </c>
       <c r="G102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13700</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8753350</v>
       </c>
       <c r="I102">
@@ -3865,33 +3831,33 @@
         <v>638.93065693430663</v>
       </c>
       <c r="J102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>376282.08333333331</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="B103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="C103">
-        <f t="shared" si="7"/>
-        <v>1060</v>
+        <f t="shared" si="15"/>
+        <v>1440</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
-        <v>3.3962264150943398</v>
+        <f t="shared" si="9"/>
+        <v>2.5</v>
       </c>
       <c r="G103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13988</v>
       </c>
       <c r="H103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9030770</v>
       </c>
       <c r="I103">
@@ -3899,33 +3865,33 @@
         <v>645.60837861023731</v>
       </c>
       <c r="J103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>388082.91666666669</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="B104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>530</v>
       </c>
       <c r="C104">
-        <f t="shared" si="7"/>
-        <v>1070</v>
+        <f t="shared" si="15"/>
+        <v>1450</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
-        <v>3.3644859813084111</v>
+        <f t="shared" si="9"/>
+        <v>2.4827586206896552</v>
       </c>
       <c r="G104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14279</v>
       </c>
       <c r="H104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9313990</v>
       </c>
       <c r="I104">
@@ -3933,33 +3899,33 @@
         <v>652.28587436094961</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>400127.91666666669</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="B105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="C105">
-        <f t="shared" si="7"/>
-        <v>1080</v>
+        <f t="shared" si="15"/>
+        <v>1460</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="9"/>
+        <v>2.4657534246575343</v>
       </c>
       <c r="G105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14573</v>
       </c>
       <c r="H105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9603070</v>
       </c>
       <c r="I105">
@@ -3967,33 +3933,33 @@
         <v>658.96315103273173</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>412419.58333333331</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="B106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550</v>
       </c>
       <c r="C106">
-        <f t="shared" si="7"/>
-        <v>1090</v>
+        <f t="shared" si="15"/>
+        <v>1490</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
-        <v>3.3027522935779818</v>
+        <f t="shared" si="9"/>
+        <v>2.4161073825503356</v>
       </c>
       <c r="G106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14870</v>
       </c>
       <c r="H106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9898070</v>
       </c>
       <c r="I106">
@@ -4001,2068 +3967,2892 @@
         <v>665.64021519838604</v>
       </c>
       <c r="J106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="B107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>561</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="B108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>572</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="15"/>
+        <v>1510</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="B109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>583</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="15"/>
+        <v>1520</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="B110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>594</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="15"/>
+        <v>1530</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="B111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>605</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="15"/>
+        <v>1560</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="B112">
+        <f t="shared" si="12"/>
+        <v>616</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="15"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
         <f t="shared" si="11"/>
-        <v>616</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113">
-        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="B113">
+        <f t="shared" si="12"/>
+        <v>627</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="15"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
         <f t="shared" si="11"/>
-        <v>627</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114">
-        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="B114">
+        <f t="shared" si="12"/>
+        <v>638</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="15"/>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
         <f t="shared" si="11"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115">
-        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="B115">
+        <f t="shared" si="12"/>
+        <v>649</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="15"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
         <f t="shared" si="11"/>
-        <v>649</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116">
-        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="B116">
+        <f t="shared" si="12"/>
+        <v>660</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="15"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
         <f t="shared" si="11"/>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="B117">
+        <f t="shared" si="12"/>
+        <v>672</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="15"/>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
         <f t="shared" si="11"/>
-        <v>672</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118">
-        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="B118">
+        <f t="shared" si="12"/>
+        <v>684</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="15"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119">
         <f t="shared" si="11"/>
-        <v>684</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119">
-        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="B119">
+        <f t="shared" si="12"/>
+        <v>696</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="15"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
         <f t="shared" si="11"/>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120">
-        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="B120">
+        <f t="shared" si="12"/>
+        <v>708</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="15"/>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121">
         <f t="shared" si="11"/>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121">
-        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="B121">
+        <f t="shared" si="12"/>
+        <v>720</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="15"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122">
         <f t="shared" si="11"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122">
-        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="B122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>732</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123">
-        <f t="shared" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="11"/>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124">
-        <f t="shared" si="10"/>
-        <v>118</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="11"/>
-        <v>756</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125">
-        <f t="shared" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="11"/>
-        <v>768</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="11"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127">
-        <f t="shared" si="10"/>
-        <v>121</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="11"/>
-        <v>793</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128">
-        <f t="shared" si="10"/>
-        <v>122</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="11"/>
-        <v>806</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129">
-        <f t="shared" si="10"/>
-        <v>123</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="11"/>
-        <v>819</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130">
-        <f t="shared" si="10"/>
-        <v>124</v>
-      </c>
-      <c r="B130">
-        <f t="shared" si="11"/>
-        <v>832</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="11"/>
-        <v>845</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132">
-        <f t="shared" si="10"/>
-        <v>126</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="11"/>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133">
-        <f t="shared" si="10"/>
-        <v>127</v>
-      </c>
-      <c r="B133">
-        <f t="shared" si="11"/>
-        <v>871</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134">
-        <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="B134">
-        <f t="shared" si="11"/>
-        <v>884</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="11"/>
-        <v>897</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136">
-        <f t="shared" si="10"/>
-        <v>130</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="11"/>
-        <v>910</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137">
-        <f t="shared" ref="A137:A200" si="14">A136+1</f>
-        <v>131</v>
-      </c>
-      <c r="B137">
-        <f t="shared" ref="B137:B200" si="15">B136 + FLOOR((A137-1)/10+1,1)</f>
-        <v>924</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138">
-        <f t="shared" si="14"/>
-        <v>132</v>
-      </c>
-      <c r="B138">
-        <f t="shared" si="15"/>
-        <v>938</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139">
-        <f t="shared" si="14"/>
-        <v>133</v>
-      </c>
-      <c r="B139">
-        <f t="shared" si="15"/>
-        <v>952</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140">
-        <f t="shared" si="14"/>
-        <v>134</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="15"/>
-        <v>966</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141">
-        <f t="shared" si="14"/>
-        <v>135</v>
-      </c>
-      <c r="B141">
-        <f t="shared" si="15"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142">
-        <f t="shared" si="14"/>
-        <v>136</v>
-      </c>
-      <c r="B142">
-        <f t="shared" si="15"/>
-        <v>994</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143">
-        <f t="shared" si="14"/>
-        <v>137</v>
-      </c>
-      <c r="B143">
-        <f t="shared" si="15"/>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144">
-        <f t="shared" si="14"/>
-        <v>138</v>
-      </c>
-      <c r="B144">
-        <f t="shared" si="15"/>
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145">
-        <f t="shared" si="14"/>
-        <v>139</v>
-      </c>
-      <c r="B145">
-        <f t="shared" si="15"/>
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146">
-        <f t="shared" si="14"/>
-        <v>140</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="15"/>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147">
-        <f t="shared" si="14"/>
-        <v>141</v>
-      </c>
-      <c r="B147">
-        <f t="shared" si="15"/>
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148">
-        <f t="shared" si="14"/>
-        <v>142</v>
-      </c>
-      <c r="B148">
-        <f t="shared" si="15"/>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149">
-        <f t="shared" si="14"/>
-        <v>143</v>
-      </c>
-      <c r="B149">
-        <f t="shared" si="15"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150">
-        <f t="shared" si="14"/>
-        <v>144</v>
-      </c>
-      <c r="B150">
-        <f t="shared" si="15"/>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151">
-        <f t="shared" si="14"/>
-        <v>145</v>
-      </c>
-      <c r="B151">
-        <f t="shared" si="15"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152">
-        <f t="shared" si="14"/>
-        <v>146</v>
-      </c>
-      <c r="B152">
-        <f t="shared" si="15"/>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153">
-        <f t="shared" si="14"/>
-        <v>147</v>
-      </c>
-      <c r="B153">
-        <f t="shared" si="15"/>
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154">
-        <f t="shared" si="14"/>
-        <v>148</v>
-      </c>
-      <c r="B154">
-        <f t="shared" si="15"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155">
-        <f t="shared" si="14"/>
-        <v>149</v>
-      </c>
-      <c r="B155">
-        <f t="shared" si="15"/>
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156">
-        <f t="shared" si="14"/>
-        <v>150</v>
-      </c>
-      <c r="B156">
-        <f t="shared" si="15"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157">
-        <f t="shared" si="14"/>
-        <v>151</v>
-      </c>
-      <c r="B157">
-        <f t="shared" si="15"/>
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158">
-        <f t="shared" si="14"/>
-        <v>152</v>
-      </c>
-      <c r="B158">
-        <f t="shared" si="15"/>
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159">
-        <f t="shared" si="14"/>
-        <v>153</v>
-      </c>
-      <c r="B159">
-        <f t="shared" si="15"/>
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160">
-        <f t="shared" si="14"/>
-        <v>154</v>
-      </c>
-      <c r="B160">
-        <f t="shared" si="15"/>
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161">
-        <f t="shared" si="14"/>
-        <v>155</v>
-      </c>
-      <c r="B161">
-        <f t="shared" si="15"/>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162">
-        <f t="shared" si="14"/>
-        <v>156</v>
-      </c>
-      <c r="B162">
-        <f t="shared" si="15"/>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163">
-        <f t="shared" si="14"/>
-        <v>157</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="15"/>
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164">
-        <f t="shared" si="14"/>
-        <v>158</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="15"/>
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165">
-        <f t="shared" si="14"/>
-        <v>159</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="15"/>
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166">
-        <f t="shared" si="14"/>
-        <v>160</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="15"/>
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167">
-        <f t="shared" si="14"/>
-        <v>161</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="15"/>
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168">
-        <f t="shared" si="14"/>
-        <v>162</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="15"/>
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169">
-        <f t="shared" si="14"/>
-        <v>163</v>
-      </c>
-      <c r="B169">
-        <f t="shared" si="15"/>
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170">
-        <f t="shared" si="14"/>
-        <v>164</v>
-      </c>
-      <c r="B170">
-        <f t="shared" si="15"/>
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171">
-        <f t="shared" si="14"/>
-        <v>165</v>
-      </c>
-      <c r="B171">
-        <f t="shared" si="15"/>
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172">
-        <f t="shared" si="14"/>
-        <v>166</v>
-      </c>
-      <c r="B172">
-        <f t="shared" si="15"/>
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173">
-        <f t="shared" si="14"/>
-        <v>167</v>
-      </c>
-      <c r="B173">
-        <f t="shared" si="15"/>
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174">
-        <f t="shared" si="14"/>
-        <v>168</v>
-      </c>
-      <c r="B174">
-        <f t="shared" si="15"/>
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175">
-        <f t="shared" si="14"/>
-        <v>169</v>
-      </c>
-      <c r="B175">
-        <f t="shared" si="15"/>
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176">
-        <f t="shared" si="14"/>
-        <v>170</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="15"/>
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177">
-        <f t="shared" si="14"/>
-        <v>171</v>
-      </c>
-      <c r="B177">
-        <f t="shared" si="15"/>
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178">
-        <f t="shared" si="14"/>
-        <v>172</v>
-      </c>
-      <c r="B178">
-        <f t="shared" si="15"/>
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179">
-        <f t="shared" si="14"/>
-        <v>173</v>
-      </c>
-      <c r="B179">
-        <f t="shared" si="15"/>
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180">
-        <f t="shared" si="14"/>
-        <v>174</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="15"/>
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181">
-        <f t="shared" si="14"/>
-        <v>175</v>
-      </c>
-      <c r="B181">
-        <f t="shared" si="15"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182">
-        <f t="shared" si="14"/>
-        <v>176</v>
-      </c>
-      <c r="B182">
-        <f t="shared" si="15"/>
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183">
-        <f t="shared" si="14"/>
-        <v>177</v>
-      </c>
-      <c r="B183">
-        <f t="shared" si="15"/>
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184">
-        <f t="shared" si="14"/>
-        <v>178</v>
-      </c>
-      <c r="B184">
-        <f t="shared" si="15"/>
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185">
-        <f t="shared" si="14"/>
-        <v>179</v>
-      </c>
-      <c r="B185">
-        <f t="shared" si="15"/>
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186">
-        <f t="shared" si="14"/>
-        <v>180</v>
-      </c>
-      <c r="B186">
+      <c r="C122">
         <f t="shared" si="15"/>
         <v>1710</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187">
-        <f t="shared" si="14"/>
-        <v>181</v>
-      </c>
-      <c r="B187">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="12"/>
+        <v>744</v>
+      </c>
+      <c r="C123">
         <f t="shared" si="15"/>
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188">
-        <f t="shared" si="14"/>
-        <v>182</v>
-      </c>
-      <c r="B188">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="12"/>
+        <v>756</v>
+      </c>
+      <c r="C124">
         <f t="shared" si="15"/>
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189">
-        <f t="shared" si="14"/>
-        <v>183</v>
-      </c>
-      <c r="B189">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="12"/>
+        <v>768</v>
+      </c>
+      <c r="C125">
         <f t="shared" si="15"/>
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190">
-        <f t="shared" si="14"/>
-        <v>184</v>
-      </c>
-      <c r="B190">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="C126">
         <f t="shared" si="15"/>
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191">
-        <f t="shared" si="14"/>
-        <v>185</v>
-      </c>
-      <c r="B191">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <f t="shared" si="11"/>
+        <v>121</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="12"/>
+        <v>793</v>
+      </c>
+      <c r="C127">
         <f t="shared" si="15"/>
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192">
-        <f t="shared" si="14"/>
-        <v>186</v>
-      </c>
-      <c r="B192">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <f t="shared" si="11"/>
+        <v>122</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="12"/>
+        <v>806</v>
+      </c>
+      <c r="C128">
         <f t="shared" si="15"/>
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193">
-        <f t="shared" si="14"/>
-        <v>187</v>
-      </c>
-      <c r="B193">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="12"/>
+        <v>819</v>
+      </c>
+      <c r="C129">
         <f t="shared" si="15"/>
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194">
-        <f t="shared" si="14"/>
-        <v>188</v>
-      </c>
-      <c r="B194">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="12"/>
+        <v>832</v>
+      </c>
+      <c r="C130">
         <f t="shared" si="15"/>
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195">
-        <f t="shared" si="14"/>
-        <v>189</v>
-      </c>
-      <c r="B195">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="12"/>
+        <v>845</v>
+      </c>
+      <c r="C131">
         <f t="shared" si="15"/>
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196">
-        <f t="shared" si="14"/>
-        <v>190</v>
-      </c>
-      <c r="B196">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="12"/>
+        <v>858</v>
+      </c>
+      <c r="C132">
         <f t="shared" si="15"/>
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197">
-        <f t="shared" si="14"/>
-        <v>191</v>
-      </c>
-      <c r="B197">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="12"/>
+        <v>871</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="15"/>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="12"/>
+        <v>884</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="15"/>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="12"/>
+        <v>897</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="15"/>
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="12"/>
+        <v>910</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="15"/>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <f t="shared" ref="A137:A200" si="16">A136+1</f>
+        <v>131</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137:B200" si="17">B136 + FLOOR((A137-1)/10+1,1)</f>
+        <v>924</v>
+      </c>
+      <c r="C137">
         <f t="shared" si="15"/>
         <v>1920</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198">
-        <f t="shared" si="14"/>
-        <v>192</v>
-      </c>
-      <c r="B198">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <f t="shared" si="16"/>
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="17"/>
+        <v>938</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="15"/>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <f t="shared" si="16"/>
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="17"/>
+        <v>952</v>
+      </c>
+      <c r="C139">
         <f t="shared" si="15"/>
         <v>1940</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <f t="shared" si="16"/>
+        <v>134</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="17"/>
+        <v>966</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="15"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <f t="shared" si="16"/>
+        <v>135</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="17"/>
+        <v>980</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141:C204" si="18">A141*10+90 + FLOOR((A141)/5,1)*20</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <f t="shared" si="16"/>
+        <v>136</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="17"/>
+        <v>994</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="18"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <f t="shared" si="16"/>
+        <v>137</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="17"/>
+        <v>1008</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="18"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <f t="shared" si="16"/>
+        <v>138</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="17"/>
+        <v>1022</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="18"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <f t="shared" si="16"/>
+        <v>139</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="17"/>
+        <v>1036</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="18"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <f t="shared" si="16"/>
+        <v>140</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="17"/>
+        <v>1050</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="18"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="17"/>
+        <v>1065</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="18"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <f t="shared" si="16"/>
+        <v>142</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="17"/>
+        <v>1080</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="18"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <f t="shared" si="16"/>
+        <v>143</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="17"/>
+        <v>1095</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="18"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <f t="shared" si="16"/>
+        <v>144</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="17"/>
+        <v>1110</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="18"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <f t="shared" si="16"/>
+        <v>145</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="17"/>
+        <v>1125</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="18"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <f t="shared" si="16"/>
+        <v>146</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="17"/>
+        <v>1140</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="18"/>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <f t="shared" si="16"/>
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="17"/>
+        <v>1155</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="18"/>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <f t="shared" si="16"/>
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="17"/>
+        <v>1170</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="18"/>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <f t="shared" si="16"/>
+        <v>149</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="17"/>
+        <v>1185</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="18"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="17"/>
+        <v>1200</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="18"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="17"/>
+        <v>1216</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="18"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <f t="shared" si="16"/>
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="17"/>
+        <v>1232</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="18"/>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <f t="shared" si="16"/>
+        <v>153</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="17"/>
+        <v>1248</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="18"/>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <f t="shared" si="16"/>
+        <v>154</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="17"/>
+        <v>1264</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="18"/>
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <f t="shared" si="16"/>
+        <v>155</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="17"/>
+        <v>1280</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="18"/>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <f t="shared" si="16"/>
+        <v>156</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="17"/>
+        <v>1296</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="18"/>
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <f t="shared" si="16"/>
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="17"/>
+        <v>1312</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="18"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <f t="shared" si="16"/>
+        <v>158</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="17"/>
+        <v>1328</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="18"/>
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <f t="shared" si="16"/>
+        <v>159</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="17"/>
+        <v>1344</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="18"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="17"/>
+        <v>1360</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="18"/>
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <f t="shared" si="16"/>
+        <v>161</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="17"/>
+        <v>1377</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="18"/>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <f t="shared" si="16"/>
+        <v>162</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="17"/>
+        <v>1394</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="18"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <f t="shared" si="16"/>
+        <v>163</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="17"/>
+        <v>1411</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="18"/>
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <f t="shared" si="16"/>
+        <v>164</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="17"/>
+        <v>1428</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="18"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <f t="shared" si="16"/>
+        <v>165</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="17"/>
+        <v>1445</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="18"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <f t="shared" si="16"/>
+        <v>166</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="17"/>
+        <v>1462</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="18"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <f t="shared" si="16"/>
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="17"/>
+        <v>1479</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="18"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <f t="shared" si="16"/>
+        <v>168</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="17"/>
+        <v>1496</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="18"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <f t="shared" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="17"/>
+        <v>1513</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="18"/>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="17"/>
+        <v>1530</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="18"/>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="17"/>
+        <v>1548</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="18"/>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="17"/>
+        <v>1566</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="18"/>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="17"/>
+        <v>1584</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="18"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <f t="shared" si="16"/>
+        <v>174</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="17"/>
+        <v>1602</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="18"/>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="17"/>
+        <v>1620</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="18"/>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <f t="shared" si="16"/>
+        <v>176</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="17"/>
+        <v>1638</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="18"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <f t="shared" si="16"/>
+        <v>177</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="17"/>
+        <v>1656</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="18"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <f t="shared" si="16"/>
+        <v>178</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="17"/>
+        <v>1674</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="18"/>
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <f t="shared" si="16"/>
+        <v>179</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="17"/>
+        <v>1692</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="18"/>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="17"/>
+        <v>1710</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="18"/>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <f t="shared" si="16"/>
+        <v>181</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="17"/>
+        <v>1729</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="18"/>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <f t="shared" si="16"/>
+        <v>182</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="17"/>
+        <v>1748</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="18"/>
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <f t="shared" si="16"/>
+        <v>183</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="17"/>
+        <v>1767</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="18"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <f t="shared" si="16"/>
+        <v>184</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="17"/>
+        <v>1786</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="18"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="17"/>
+        <v>1805</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="18"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <f t="shared" si="16"/>
+        <v>186</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="17"/>
+        <v>1824</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="18"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <f t="shared" si="16"/>
+        <v>187</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="17"/>
+        <v>1843</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="18"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <f t="shared" si="16"/>
+        <v>188</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="17"/>
+        <v>1862</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="18"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <f t="shared" si="16"/>
+        <v>189</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="17"/>
+        <v>1881</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="18"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <f t="shared" si="16"/>
+        <v>190</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="17"/>
+        <v>1900</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="18"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <f t="shared" si="16"/>
+        <v>191</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="17"/>
+        <v>1920</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="18"/>
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <f t="shared" si="16"/>
+        <v>192</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="17"/>
+        <v>1940</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="18"/>
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>193</v>
       </c>
       <c r="B199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1960</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C199">
+        <f t="shared" si="18"/>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>194</v>
       </c>
       <c r="B200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C200">
+        <f t="shared" si="18"/>
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201">
-        <f t="shared" ref="A201:A264" si="16">A200+1</f>
+        <f t="shared" ref="A201:A264" si="19">A200+1</f>
         <v>195</v>
       </c>
       <c r="B201">
-        <f t="shared" ref="B201:B264" si="17">B200 + FLOOR((A201-1)/10+1,1)</f>
+        <f t="shared" ref="B201:B264" si="20">B200 + FLOOR((A201-1)/10+1,1)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C201">
+        <f t="shared" si="18"/>
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>196</v>
       </c>
       <c r="B202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C202">
+        <f t="shared" si="18"/>
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>197</v>
       </c>
       <c r="B203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C203">
+        <f t="shared" si="18"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>198</v>
       </c>
       <c r="B204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2060</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C204">
+        <f t="shared" si="18"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>199</v>
       </c>
       <c r="B205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2080</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C205">
+        <f t="shared" ref="C205:C268" si="21">A205*10+90 + FLOOR((A205)/5,1)*20</f>
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="B206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C206">
+        <f t="shared" si="21"/>
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>201</v>
       </c>
       <c r="B207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2121</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C207">
+        <f t="shared" si="21"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>202</v>
       </c>
       <c r="B208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2142</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C208">
+        <f t="shared" si="21"/>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>203</v>
       </c>
       <c r="B209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2163</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C209">
+        <f t="shared" si="21"/>
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>204</v>
       </c>
       <c r="B210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2184</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C210">
+        <f t="shared" si="21"/>
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>205</v>
       </c>
       <c r="B211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2205</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C211">
+        <f t="shared" si="21"/>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>206</v>
       </c>
       <c r="B212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2226</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C212">
+        <f t="shared" si="21"/>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>207</v>
       </c>
       <c r="B213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2247</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C213">
+        <f t="shared" si="21"/>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>208</v>
       </c>
       <c r="B214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2268</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C214">
+        <f t="shared" si="21"/>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>209</v>
       </c>
       <c r="B215">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2289</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C215">
+        <f t="shared" si="21"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>210</v>
       </c>
       <c r="B216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2310</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C216">
+        <f t="shared" si="21"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>211</v>
       </c>
       <c r="B217">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2332</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C217">
+        <f t="shared" si="21"/>
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>212</v>
       </c>
       <c r="B218">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2354</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C218">
+        <f t="shared" si="21"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>213</v>
       </c>
       <c r="B219">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2376</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C219">
+        <f t="shared" si="21"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>214</v>
       </c>
       <c r="B220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2398</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C220">
+        <f t="shared" si="21"/>
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="B221">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2420</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C221">
+        <f t="shared" si="21"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>216</v>
       </c>
       <c r="B222">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2442</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C222">
+        <f t="shared" si="21"/>
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
       <c r="B223">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C223">
+        <f t="shared" si="21"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>218</v>
       </c>
       <c r="B224">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2486</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C224">
+        <f t="shared" si="21"/>
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>219</v>
       </c>
       <c r="B225">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2508</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C225">
+        <f t="shared" si="21"/>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>220</v>
       </c>
       <c r="B226">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2530</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C226">
+        <f t="shared" si="21"/>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>221</v>
       </c>
       <c r="B227">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2553</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C227">
+        <f t="shared" si="21"/>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>222</v>
       </c>
       <c r="B228">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2576</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C228">
+        <f t="shared" si="21"/>
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>223</v>
       </c>
       <c r="B229">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2599</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C229">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>224</v>
       </c>
       <c r="B230">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2622</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C230">
+        <f t="shared" si="21"/>
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>225</v>
       </c>
       <c r="B231">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2645</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C231">
+        <f t="shared" si="21"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>226</v>
       </c>
       <c r="B232">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2668</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C232">
+        <f t="shared" si="21"/>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>227</v>
       </c>
       <c r="B233">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2691</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C233">
+        <f t="shared" si="21"/>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>228</v>
       </c>
       <c r="B234">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2714</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C234">
+        <f t="shared" si="21"/>
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>229</v>
       </c>
       <c r="B235">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2737</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C235">
+        <f t="shared" si="21"/>
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="B236">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2760</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C236">
+        <f t="shared" si="21"/>
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>231</v>
       </c>
       <c r="B237">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2784</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C237">
+        <f t="shared" si="21"/>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>232</v>
       </c>
       <c r="B238">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2808</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C238">
+        <f t="shared" si="21"/>
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>233</v>
       </c>
       <c r="B239">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2832</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C239">
+        <f t="shared" si="21"/>
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>234</v>
       </c>
       <c r="B240">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2856</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C240">
+        <f t="shared" si="21"/>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>235</v>
       </c>
       <c r="B241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2880</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C241">
+        <f t="shared" si="21"/>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>236</v>
       </c>
       <c r="B242">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2904</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C242">
+        <f t="shared" si="21"/>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>237</v>
       </c>
       <c r="B243">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2928</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C243">
+        <f t="shared" si="21"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>238</v>
       </c>
       <c r="B244">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2952</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C244">
+        <f t="shared" si="21"/>
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>239</v>
       </c>
       <c r="B245">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2976</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C245">
+        <f t="shared" si="21"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>240</v>
       </c>
       <c r="B246">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C246">
+        <f t="shared" si="21"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>241</v>
       </c>
       <c r="B247">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3025</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C247">
+        <f t="shared" si="21"/>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>242</v>
       </c>
       <c r="B248">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3050</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C248">
+        <f t="shared" si="21"/>
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>243</v>
       </c>
       <c r="B249">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3075</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C249">
+        <f t="shared" si="21"/>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>244</v>
       </c>
       <c r="B250">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3100</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C250">
+        <f t="shared" si="21"/>
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>245</v>
       </c>
       <c r="B251">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3125</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C251">
+        <f t="shared" si="21"/>
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>246</v>
       </c>
       <c r="B252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3150</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C252">
+        <f t="shared" si="21"/>
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>247</v>
       </c>
       <c r="B253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3175</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C253">
+        <f t="shared" si="21"/>
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>248</v>
       </c>
       <c r="B254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3200</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C254">
+        <f t="shared" si="21"/>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>249</v>
       </c>
       <c r="B255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3225</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C255">
+        <f t="shared" si="21"/>
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="B256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3250</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C256">
+        <f t="shared" si="21"/>
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>251</v>
       </c>
       <c r="B257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3276</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C257">
+        <f t="shared" si="21"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>252</v>
       </c>
       <c r="B258">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3302</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C258">
+        <f t="shared" si="21"/>
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>253</v>
       </c>
       <c r="B259">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3328</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C259">
+        <f t="shared" si="21"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>254</v>
       </c>
       <c r="B260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3354</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C260">
+        <f t="shared" si="21"/>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>255</v>
       </c>
       <c r="B261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3380</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C261">
+        <f t="shared" si="21"/>
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="B262">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3406</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C262">
+        <f t="shared" si="21"/>
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>257</v>
       </c>
       <c r="B263">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3432</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C263">
+        <f t="shared" si="21"/>
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>258</v>
       </c>
       <c r="B264">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3458</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C264">
+        <f t="shared" si="21"/>
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265">
-        <f t="shared" ref="A265:A312" si="18">A264+1</f>
+        <f t="shared" ref="A265:A312" si="22">A264+1</f>
         <v>259</v>
       </c>
       <c r="B265">
-        <f t="shared" ref="B265:B312" si="19">B264 + FLOOR((A265-1)/10+1,1)</f>
+        <f t="shared" ref="B265:B312" si="23">B264 + FLOOR((A265-1)/10+1,1)</f>
         <v>3484</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C265">
+        <f t="shared" si="21"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>260</v>
       </c>
       <c r="B266">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3510</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C266">
+        <f t="shared" si="21"/>
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>261</v>
       </c>
       <c r="B267">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3537</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C267">
+        <f t="shared" si="21"/>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>262</v>
       </c>
       <c r="B268">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3564</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C268">
+        <f t="shared" si="21"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>263</v>
       </c>
       <c r="B269">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3591</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C269">
+        <f t="shared" ref="C269:C312" si="24">A269*10+90 + FLOOR((A269)/5,1)*20</f>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>264</v>
       </c>
       <c r="B270">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3618</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C270">
+        <f t="shared" si="24"/>
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>265</v>
       </c>
       <c r="B271">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3645</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C271">
+        <f t="shared" si="24"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>266</v>
       </c>
       <c r="B272">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3672</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C272">
+        <f t="shared" si="24"/>
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>267</v>
       </c>
       <c r="B273">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3699</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C273">
+        <f t="shared" si="24"/>
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>268</v>
       </c>
       <c r="B274">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3726</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C274">
+        <f t="shared" si="24"/>
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>269</v>
       </c>
       <c r="B275">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3753</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C275">
+        <f t="shared" si="24"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>270</v>
       </c>
       <c r="B276">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3780</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C276">
+        <f t="shared" si="24"/>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>271</v>
       </c>
       <c r="B277">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3808</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C277">
+        <f t="shared" si="24"/>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>272</v>
       </c>
       <c r="B278">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3836</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C278">
+        <f t="shared" si="24"/>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>273</v>
       </c>
       <c r="B279">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3864</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C279">
+        <f t="shared" si="24"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>274</v>
       </c>
       <c r="B280">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3892</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C280">
+        <f t="shared" si="24"/>
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>275</v>
       </c>
       <c r="B281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3920</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C281">
+        <f t="shared" si="24"/>
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>276</v>
       </c>
       <c r="B282">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3948</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C282">
+        <f t="shared" si="24"/>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>277</v>
       </c>
       <c r="B283">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3976</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C283">
+        <f t="shared" si="24"/>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>278</v>
       </c>
       <c r="B284">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4004</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C284">
+        <f t="shared" si="24"/>
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>279</v>
       </c>
       <c r="B285">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4032</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C285">
+        <f t="shared" si="24"/>
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>280</v>
       </c>
       <c r="B286">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4060</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C286">
+        <f t="shared" si="24"/>
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>281</v>
       </c>
       <c r="B287">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4089</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C287">
+        <f t="shared" si="24"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>282</v>
       </c>
       <c r="B288">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4118</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C288">
+        <f t="shared" si="24"/>
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>283</v>
       </c>
       <c r="B289">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4147</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C289">
+        <f t="shared" si="24"/>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>284</v>
       </c>
       <c r="B290">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4176</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C290">
+        <f t="shared" si="24"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>285</v>
       </c>
       <c r="B291">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4205</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C291">
+        <f t="shared" si="24"/>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>286</v>
       </c>
       <c r="B292">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4234</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C292">
+        <f t="shared" si="24"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>287</v>
       </c>
       <c r="B293">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4263</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C293">
+        <f t="shared" si="24"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>288</v>
       </c>
       <c r="B294">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4292</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C294">
+        <f t="shared" si="24"/>
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>289</v>
       </c>
       <c r="B295">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4321</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C295">
+        <f t="shared" si="24"/>
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>290</v>
       </c>
       <c r="B296">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4350</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C296">
+        <f t="shared" si="24"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>291</v>
       </c>
       <c r="B297">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4380</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C297">
+        <f t="shared" si="24"/>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>292</v>
       </c>
       <c r="B298">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4410</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C298">
+        <f t="shared" si="24"/>
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>293</v>
       </c>
       <c r="B299">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4440</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C299">
+        <f t="shared" si="24"/>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>294</v>
       </c>
       <c r="B300">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4470</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C300">
+        <f t="shared" si="24"/>
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
       <c r="B301">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C301">
+        <f t="shared" si="24"/>
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>296</v>
       </c>
       <c r="B302">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4530</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C302">
+        <f t="shared" si="24"/>
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>297</v>
       </c>
       <c r="B303">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4560</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C303">
+        <f t="shared" si="24"/>
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>298</v>
       </c>
       <c r="B304">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4590</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C304">
+        <f t="shared" si="24"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>299</v>
       </c>
       <c r="B305">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4620</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C305">
+        <f t="shared" si="24"/>
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="B306">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4650</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C306">
+        <f t="shared" si="24"/>
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>301</v>
       </c>
       <c r="B307">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4681</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C307">
+        <f t="shared" si="24"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>302</v>
       </c>
       <c r="B308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4712</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C308">
+        <f t="shared" si="24"/>
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>303</v>
       </c>
       <c r="B309">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4743</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C309">
+        <f t="shared" si="24"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="B310">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4774</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C310">
+        <f t="shared" si="24"/>
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>305</v>
       </c>
       <c r="B311">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4805</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C311">
+        <f t="shared" si="24"/>
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>306</v>
       </c>
       <c r="B312">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4836</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="24"/>
+        <v>4370</v>
       </c>
     </row>
   </sheetData>

--- a/db/compute.xlsx
+++ b/db/compute.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,8 +525,8 @@
         <v>2.9166666666666665</v>
       </c>
       <c r="L7">
-        <f>POWER(A8,3.05)*100-2000</f>
-        <v>-1171.7880609268982</v>
+        <f>POWER(A7,3.05)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -563,8 +563,8 @@
         <v>7.916666666666667</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L26" si="3">POWER(A9,3.05)*100-2000</f>
-        <v>852.46173308375273</v>
+        <f t="shared" ref="L8:L26" si="3">POWER(A8,3.05)*100</f>
+        <v>828.21193907310192</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>4859.3501602322731</v>
+        <v>2852.4617330837527</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -640,7 +640,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>11547.479834179594</v>
+        <v>6859.3501602322731</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -678,7 +678,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>21624.428630891147</v>
+        <v>13547.479834179594</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>35804.980818293261</v>
+        <v>23624.428630891147</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>54809.95696987363</v>
+        <v>37804.980818293261</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>79365.379387071662</v>
+        <v>56809.95696987363</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -830,7 +830,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>110201.84543019636</v>
+        <v>81365.379387071662</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>148054.03897340756</v>
+        <v>112201.84543019636</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -906,7 +906,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>193660.33845884461</v>
+        <v>150054.03897340756</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>247762.49523887501</v>
+        <v>195660.33845884461</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -982,7 +982,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>311105.36470140057</v>
+        <v>249762.49523887501</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>384436.678067211</v>
+        <v>313105.36470140057</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>468506.84620678524</v>
+        <v>386436.678067211</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>564068.78912643855</v>
+        <v>470506.84620678524</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>671877.78635585099</v>
+        <v>566068.78912643855</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>792691.34458596318</v>
+        <v>673877.78635585099</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>927269.07971323212</v>
+        <v>794691.34458596318</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>1076372.6110414667</v>
+        <v>929269.07971323212</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
